--- a/additional information/from the course/LCOE solel i Sverige ovriga version 1-11 20160922.xlsx
+++ b/additional information/from the course/LCOE solel i Sverige ovriga version 1-11 20160922.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Data\1-PV\Economy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukas\Documents\DVA313-Solar-Energy\additional information\from the course\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9015" tabRatio="493"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9020" tabRatio="650" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Inledning" sheetId="20" r:id="rId1"/>
@@ -24,17 +24,21 @@
     <definedName name="Andel_egenanvänd_el">'Dina indata &amp; Resultat'!$D$60</definedName>
     <definedName name="Andel_elcertifikattilldelning">'Dina indata &amp; Resultat'!$D$65</definedName>
     <definedName name="Anläggningens_effekt">'Dina indata &amp; Resultat'!$D$18</definedName>
-    <definedName name="Antal_byten_av_växelriktare">'Grundläggande antaganden'!$D$23</definedName>
     <definedName name="Antal_år_med_skattereduktion">'Dina indata &amp; Resultat'!$D$68</definedName>
     <definedName name="Antal_år_till_byte_av_växelriktare">'Grundläggande antaganden'!$D$24</definedName>
+    <definedName name="Antal_byten_av_växelriktare">'Grundläggande antaganden'!$D$23</definedName>
+    <definedName name="Årlig_degradering">'Grundläggande antaganden'!$D$56</definedName>
+    <definedName name="Årlig_fast_driftkostnad">'Dina indata &amp; Resultat'!$D$47</definedName>
+    <definedName name="Årlig_rörlig_driftkostnad">'Dina indata &amp; Resultat'!$D$48</definedName>
     <definedName name="Avslutskostnader">'Grundläggande antaganden'!$D$52</definedName>
     <definedName name="Besiktning_efter_färdigställande">'Dina indata &amp; Resultat'!$D$37</definedName>
     <definedName name="Bygglov">'Dina indata &amp; Resultat'!$D$35</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">Kassaflöden!$A:$A</definedName>
     <definedName name="Egen_kostnadspost">'Grundläggande antaganden'!$D$37</definedName>
     <definedName name="Ekonomisk_livslängd">'Dina indata &amp; Resultat'!$D$24</definedName>
+    <definedName name="Elcertifikatår">'Grundläggande antaganden'!$D$64</definedName>
     <definedName name="Elcertifikathantering">'Grundläggande antaganden'!$D$30</definedName>
     <definedName name="Elcertifikatvärde">'Dina indata &amp; Resultat'!$D$64</definedName>
-    <definedName name="Elcertifikatår">'Grundläggande antaganden'!$D$64</definedName>
     <definedName name="Ersättning_från_nätägare">'Dina indata &amp; Resultat'!$D$63</definedName>
     <definedName name="Fastighetsskatt">'Grundläggande antaganden'!$D$31</definedName>
     <definedName name="Försäkring">'Grundläggande antaganden'!$D$41</definedName>
@@ -49,7 +53,7 @@
     <definedName name="Loggning">'Grundläggande antaganden'!$D$33</definedName>
     <definedName name="Mark_köp_preparering">'Grundläggande antaganden'!$D$20</definedName>
     <definedName name="Nätanslutningskostnad">'Grundläggande antaganden'!$D$21</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">Kassaflöden!$A:$A</definedName>
+    <definedName name="Övrigt">'Grundläggande antaganden'!$D$37</definedName>
     <definedName name="Pris_köpt_el">'Dina indata &amp; Resultat'!$D$61</definedName>
     <definedName name="Pris_såld_el">'Dina indata &amp; Resultat'!$D$62</definedName>
     <definedName name="Projektledning_och_upphandling">'Dina indata &amp; Resultat'!$D$36</definedName>
@@ -58,6 +62,7 @@
     <definedName name="Restvärde">'Grundläggande antaganden'!$D$50</definedName>
     <definedName name="Rivningskostnad">'Grundläggande antaganden'!$D$51</definedName>
     <definedName name="ROT_avdrag">'Grundläggande antaganden'!$D$17</definedName>
+    <definedName name="Säkringsstorlek_i_anslutningspunkten">'Dina indata &amp; Resultat'!$D$20</definedName>
     <definedName name="Servitut">'Grundläggande antaganden'!$D$35</definedName>
     <definedName name="Skattereduktion">'Grundläggande antaganden'!$D$65</definedName>
     <definedName name="solver_adj" localSheetId="1" hidden="1">'Dina indata &amp; Resultat'!$D$28</definedName>
@@ -105,20 +110,20 @@
     <definedName name="Startdata_Annan_Kalkylränta">Ingångsvärden!$C$13</definedName>
     <definedName name="Startdata_Annan_Kvotplikt_medelvärde">Ingångsvärden!$C$27</definedName>
     <definedName name="Startdata_Annan_Loggning">Ingångsvärden!$C$36</definedName>
+    <definedName name="Startdata_Annan_Övrigt">Ingångsvärden!$C$39</definedName>
     <definedName name="Startdata_Annan_Projektledning_och_upphandling">Ingångsvärden!$C$17</definedName>
     <definedName name="Startdata_Annan_Rengöring_av_moduler">Ingångsvärden!$C$43</definedName>
     <definedName name="Startdata_Annan_Resor">Ingångsvärden!$C$37</definedName>
+    <definedName name="Startdata_Annan_Säkringsstorlek_i_anslutningspunkten">Ingångsvärden!$C$11</definedName>
     <definedName name="Startdata_Annan_Servitut">Ingångsvärden!$C$38</definedName>
-    <definedName name="Startdata_Annan_Säkringsstorlek_i_anslutningspunkten">Ingångsvärden!$C$11</definedName>
     <definedName name="Startdata_Annan_Tillsyn">Ingångsvärden!$C$44</definedName>
     <definedName name="Startdata_Annan_Underhåll_av_yta">Ingångsvärden!$C$42</definedName>
     <definedName name="Startdata_Annan_Ursprungsgarantier_värde">Ingångsvärden!$C$28</definedName>
     <definedName name="Startdata_Annan_Utbildning">Ingångsvärden!$C$19</definedName>
     <definedName name="Startdata_Annan_Utbyte_år1">Ingångsvärden!$C$20</definedName>
-    <definedName name="Startdata_Annan_Verkningsgrad_solcellsmoduler">Ingångsvärden!$C$33</definedName>
     <definedName name="Startdata_Annan_Värde_egenanvänd_solel">Ingångsvärden!$C$22</definedName>
     <definedName name="Startdata_Annan_Värde_såld_el">Ingångsvärden!$C$23</definedName>
-    <definedName name="Startdata_Annan_Övrigt">Ingångsvärden!$C$39</definedName>
+    <definedName name="Startdata_Annan_Verkningsgrad_solcellsmoduler">Ingångsvärden!$C$33</definedName>
     <definedName name="Startdata_Privat_Andel_egenanvänd_el" localSheetId="5">Ingångsvärden!$B$21</definedName>
     <definedName name="Startdata_Privat_Andel_elcertifikattilldelning">Ingångsvärden!$B$26</definedName>
     <definedName name="Startdata_Privat_Anläggningens_effekt">Ingångsvärden!$B$10</definedName>
@@ -137,26 +142,25 @@
     <definedName name="Startdata_Privat_Kalkylränta" localSheetId="5">Ingångsvärden!$B$13</definedName>
     <definedName name="Startdata_Privat_Kvotplikt_medelvärde" localSheetId="5">Ingångsvärden!$B$27</definedName>
     <definedName name="Startdata_Privat_Loggning">Ingångsvärden!$B$36</definedName>
+    <definedName name="Startdata_Privat_Övrigt">Ingångsvärden!$B$39</definedName>
     <definedName name="Startdata_Privat_Projektledning_och_upphandling" localSheetId="5">Ingångsvärden!$B$17</definedName>
     <definedName name="Startdata_Privat_Projektledning_och_upphandling">Ingångsvärden!$B$17</definedName>
     <definedName name="Startdata_Privat_Rengöring_av_moduler">Ingångsvärden!$B$43</definedName>
     <definedName name="Startdata_Privat_Resor">Ingångsvärden!$B$37</definedName>
+    <definedName name="Startdata_Privat_Säkringsstorlek_i_anslutningspunkten">Ingångsvärden!$B$11</definedName>
     <definedName name="Startdata_Privat_Servitut">Ingångsvärden!$B$38</definedName>
-    <definedName name="Startdata_Privat_Säkringsstorlek_i_anslutningspunkten">Ingångsvärden!$B$11</definedName>
     <definedName name="Startdata_Privat_Tillsyn">Ingångsvärden!$B$44</definedName>
     <definedName name="Startdata_Privat_Underhåll_av_yta">Ingångsvärden!$B$42</definedName>
     <definedName name="Startdata_Privat_Ursprungsgarantier_värde">Ingångsvärden!$B$28</definedName>
     <definedName name="Startdata_Privat_Utbildning">Ingångsvärden!$B$19</definedName>
     <definedName name="Startdata_Privat_Utbyte_år1">Ingångsvärden!$B$20</definedName>
-    <definedName name="Startdata_Privat_Verkningsgrad_solcellsmoduler">Ingångsvärden!$B$33</definedName>
     <definedName name="Startdata_Privat_Värde_egenanvänd_solel">Ingångsvärden!$B$22</definedName>
     <definedName name="Startdata_Privat_Värde_såld_el" localSheetId="5">Ingångsvärden!$B$23</definedName>
-    <definedName name="Startdata_Privat_Övrigt">Ingångsvärden!$B$39</definedName>
+    <definedName name="Startdata_Privat_Verkningsgrad_solcellsmoduler">Ingångsvärden!$B$33</definedName>
+    <definedName name="Summa_årliga_kostnader">'Dina indata &amp; Resultat'!$D$49</definedName>
     <definedName name="Summa_investering">'Dina indata &amp; Resultat'!$D$41</definedName>
     <definedName name="Summa_investering_med_investeringsstöd">'Dina indata &amp; Resultat'!$D$43</definedName>
     <definedName name="Summa_investering_med_ROT_avdrag">'Dina indata &amp; Resultat'!$D$42</definedName>
-    <definedName name="Summa_årliga_kostnader">'Dina indata &amp; Resultat'!$D$49</definedName>
-    <definedName name="Säkringsstorlek_i_anslutningspunkten">'Dina indata &amp; Resultat'!$D$20</definedName>
     <definedName name="Tak_investeringsstöd">'Grundläggande antaganden'!$D$16</definedName>
     <definedName name="Tak_ROT_avdrag">'Grundläggande antaganden'!$D$18</definedName>
     <definedName name="Tak_skattereduktion">'Grundläggande antaganden'!$D$66</definedName>
@@ -172,17 +176,13 @@
     <definedName name="Uttagsabonnemang">'Grundläggande antaganden'!$D$36</definedName>
     <definedName name="Vald_användare">'Dina indata &amp; Resultat'!$D$17</definedName>
     <definedName name="Verkningsgrad_solcellsmoduler">'Grundläggande antaganden'!$D$12</definedName>
-    <definedName name="Årlig_degradering">'Grundläggande antaganden'!$D$56</definedName>
-    <definedName name="Årlig_fast_driftkostnad">'Dina indata &amp; Resultat'!$D$47</definedName>
-    <definedName name="Årlig_rörlig_driftkostnad">'Dina indata &amp; Resultat'!$D$48</definedName>
-    <definedName name="Övrigt">'Grundläggande antaganden'!$D$37</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="290">
   <si>
     <t>kr/kW</t>
   </si>
@@ -1260,18 +1260,21 @@
   <si>
     <t>Viktigt att eget värde anges då det har stor betydelse för lönsamheten. Exklusive elcertifikat, ursprungsgarantier och skattereduktion, som anges i separata poster nedan. Nord Pool spotpris var i medel ovanligt låga ca 20 öre/kWh under 2015, ca 29 öre/kWh under 2014 och ca 34 öre/kWh under 2013. Vissa elbolag betalar ett högre pris än spotpriset till så kallade mikroproducenter. Ska anges exklusive moms även för privatpersoner, eftersom den moms som betalas ut av elbolaget ska momsredovisas och betalas in till Skatteverket.  Ingångsvärdet baseras på en modellerad  prognos över elprisets utveckling enligt Energimyndighetens rapport "Kontrollstation 2017 för elcertifikatsystemet - En delredovisning ER 2016:09".</t>
   </si>
+  <si>
+    <t>kr/är</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
-    <numFmt numFmtId="6" formatCode="#,##0\ &quot;kr&quot;;[Red]\-#,##0\ &quot;kr&quot;"/>
-    <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="#,##0.000"/>
-    <numFmt numFmtId="167" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
-    <numFmt numFmtId="168" formatCode="#,##0.0"/>
+    <numFmt numFmtId="164" formatCode="#,##0\ &quot;kr&quot;;[Red]\-#,##0\ &quot;kr&quot;"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="#,##0.000"/>
+    <numFmt numFmtId="168" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+    <numFmt numFmtId="169" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="23" x14ac:knownFonts="1">
     <font>
@@ -1641,26 +1644,26 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1669,20 +1672,20 @@
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1706,37 +1709,37 @@
     <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1804,10 +1807,10 @@
     <xf numFmtId="9" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1875,7 +1878,7 @@
     <xf numFmtId="9" fontId="0" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1888,7 +1891,7 @@
     <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1920,10 +1923,10 @@
     <xf numFmtId="3" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1950,7 +1953,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2038,7 +2041,7 @@
     <xf numFmtId="0" fontId="14" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2068,7 +2071,7 @@
     <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2077,35 +2080,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="6" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
     <cellStyle name="Procent 2" xfId="2"/>
+    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -2156,7 +2159,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2190,6 +2193,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2258,7 +2262,7 @@
                     </a:solidFill>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -2270,14 +2274,16 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>(Kassaflöden!$D$55,Kassaflöden!$G$55)</c:f>
               <c:numCache>
-                <c:formatCode>"kr"#,##0_);[Red]\("kr"#,##0\)</c:formatCode>
+                <c:formatCode>#,##0\ "kr";[Red]\-#,##0\ "kr"</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>-1192152.5647136455</c:v>
@@ -2340,7 +2346,7 @@
             <c:numRef>
               <c:f>(Kassaflöden!$D$55,Kassaflöden!$G$55)</c:f>
               <c:numCache>
-                <c:formatCode>"kr"#,##0_);[Red]\("kr"#,##0\)</c:formatCode>
+                <c:formatCode>#,##0\ "kr";[Red]\-#,##0\ "kr"</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>-1192152.5647136455</c:v>
@@ -2373,6 +2379,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2405,7 +2412,7 @@
           </a:solidFill>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2419,7 +2426,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2453,6 +2460,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2475,7 +2483,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2601,7 +2609,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -2613,7 +2621,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2646,7 +2656,7 @@
             <c:numRef>
               <c:f>Kassaflöden!$H$55:$M$55</c:f>
               <c:numCache>
-                <c:formatCode>"kr"#,##0_);[Red]\("kr"#,##0\)</c:formatCode>
+                <c:formatCode>#,##0\ "kr";[Red]\-#,##0\ "kr"</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1242606.6944646102</c:v>
@@ -2691,6 +2701,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2713,7 +2724,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2747,7 +2758,7 @@
           </a:solidFill>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2761,7 +2772,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2800,6 +2811,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2822,7 +2834,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2874,7 +2886,7 @@
             <c:numRef>
               <c:f>Kassaflöden!$O$4:$O$54</c:f>
               <c:numCache>
-                <c:formatCode>#\ ##0_ ;[Red]\-#\ ##0\ </c:formatCode>
+                <c:formatCode>#,##0_ ;[Red]\-#,##0\ </c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>-1120000</c:v>
@@ -3042,11 +3054,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="371487464"/>
-        <c:axId val="371487856"/>
+        <c:axId val="1973592432"/>
+        <c:axId val="1973579920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="371487464"/>
+        <c:axId val="1973592432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -3090,6 +3102,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3112,7 +3125,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3143,15 +3156,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371487856"/>
+        <c:crossAx val="1973579920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="371487856"/>
+        <c:axId val="1973579920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3193,6 +3206,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3215,11 +3229,11 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="#\ ##0_ ;[Red]\-#\ ##0\ " sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0_ ;[Red]\-#,##0\ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3244,10 +3258,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371487464"/>
+        <c:crossAx val="1973592432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3291,7 +3305,7 @@
           </a:solidFill>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3305,7 +3319,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3339,6 +3353,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3361,7 +3376,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3413,7 +3428,7 @@
             <c:numRef>
               <c:f>Kassaflöden!$Q$4:$Q$54</c:f>
               <c:numCache>
-                <c:formatCode>#\ ##0_ ;[Red]\-#\ ##0\ </c:formatCode>
+                <c:formatCode>#,##0_ ;[Red]\-#,##0\ </c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>-1070000</c:v>
@@ -3581,11 +3596,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="371488640"/>
-        <c:axId val="371489032"/>
+        <c:axId val="1973584272"/>
+        <c:axId val="1973584816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="371488640"/>
+        <c:axId val="1973584272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -3629,6 +3644,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3651,7 +3667,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3682,15 +3698,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371489032"/>
+        <c:crossAx val="1973584816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="371489032"/>
+        <c:axId val="1973584816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3732,6 +3748,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3754,11 +3771,11 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="#\ ##0_ ;[Red]\-#\ ##0\ " sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0_ ;[Red]\-#,##0\ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3783,10 +3800,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371488640"/>
+        <c:crossAx val="1973584272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3830,7 +3847,7 @@
           </a:solidFill>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3844,7 +3861,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3878,6 +3895,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3900,7 +3918,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3952,7 +3970,7 @@
             <c:numRef>
               <c:f>Kassaflöden!$S$4:$S$54</c:f>
               <c:numCache>
-                <c:formatCode>#\ ##0_ ;[Red]\-#\ ##0\ </c:formatCode>
+                <c:formatCode>#,##0_ ;[Red]\-#,##0\ </c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>-790000</c:v>
@@ -4120,11 +4138,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="371489816"/>
-        <c:axId val="371490208"/>
+        <c:axId val="1977794624"/>
+        <c:axId val="48949840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="371489816"/>
+        <c:axId val="1977794624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -4168,6 +4186,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4190,7 +4209,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4221,15 +4240,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371490208"/>
+        <c:crossAx val="48949840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="371490208"/>
+        <c:axId val="48949840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4271,6 +4290,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4293,11 +4313,11 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="#\ ##0_ ;[Red]\-#\ ##0\ " sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0_ ;[Red]\-#,##0\ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4322,10 +4342,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371489816"/>
+        <c:crossAx val="1977794624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4369,7 +4389,7 @@
           </a:solidFill>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4383,7 +4403,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4417,6 +4437,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4483,7 +4504,7 @@
                   <a:pPr>
                     <a:defRPr/>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="de-DE"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -4519,14 +4540,16 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>(Kassaflöden!$E$55,Kassaflöden!$G$55)</c:f>
               <c:numCache>
-                <c:formatCode>"kr"#,##0_);[Red]\("kr"#,##0\)</c:formatCode>
+                <c:formatCode>#,##0\ "kr";[Red]\-#,##0\ "kr"</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>-1142152.5647136455</c:v>
@@ -4589,7 +4612,7 @@
             <c:numRef>
               <c:f>(Kassaflöden!$D$55,Kassaflöden!$G$55)</c:f>
               <c:numCache>
-                <c:formatCode>"kr"#,##0_);[Red]\("kr"#,##0\)</c:formatCode>
+                <c:formatCode>#,##0\ "kr";[Red]\-#,##0\ "kr"</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>-1192152.5647136455</c:v>
@@ -4622,6 +4645,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4654,7 +4678,7 @@
           </a:solidFill>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4668,7 +4692,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4702,6 +4726,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4766,14 +4791,16 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>(Kassaflöden!$F$55,Kassaflöden!$G$55)</c:f>
               <c:numCache>
-                <c:formatCode>"kr"#,##0_);[Red]\("kr"#,##0\)</c:formatCode>
+                <c:formatCode>#,##0\ "kr";[Red]\-#,##0\ "kr"</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>-862152.56471364549</c:v>
@@ -4836,7 +4863,7 @@
             <c:numRef>
               <c:f>(Kassaflöden!$D$55,Kassaflöden!$G$55)</c:f>
               <c:numCache>
-                <c:formatCode>"kr"#,##0_);[Red]\("kr"#,##0\)</c:formatCode>
+                <c:formatCode>#,##0\ "kr";[Red]\-#,##0\ "kr"</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>-1192152.5647136455</c:v>
@@ -4869,6 +4896,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4901,7 +4929,7 @@
           </a:solidFill>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8056,23 +8084,23 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:F57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="17.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" style="142" customWidth="1"/>
-    <col min="2" max="2" width="88.5703125" style="142" customWidth="1"/>
-    <col min="3" max="3" width="2.28515625" style="142" customWidth="1"/>
-    <col min="4" max="4" width="87.85546875" style="142" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="142"/>
+    <col min="1" max="1" width="1.81640625" style="142" customWidth="1"/>
+    <col min="2" max="2" width="88.54296875" style="142" customWidth="1"/>
+    <col min="3" max="3" width="2.26953125" style="142" customWidth="1"/>
+    <col min="4" max="4" width="87.81640625" style="142" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="142"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:6" ht="18" x14ac:dyDescent="0.25">
       <c r="D1" s="168" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="2:6" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:6" ht="17.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="129" t="s">
         <v>162</v>
       </c>
@@ -8081,7 +8109,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:6" ht="17.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="143" t="s">
         <v>254</v>
       </c>
@@ -8090,12 +8118,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="D4" s="144" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6" ht="25" x14ac:dyDescent="0.25">
       <c r="B5" s="142" t="s">
         <v>160</v>
       </c>
@@ -8104,12 +8132,12 @@
       </c>
       <c r="F5" s="145"/>
     </row>
-    <row r="6" spans="2:6" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:6" ht="17.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="144" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:6" ht="17.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="142" t="s">
         <v>154</v>
       </c>
@@ -8117,212 +8145,212 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:6" ht="17.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D8" s="144" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:6" ht="17.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D9" s="144" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="17.850000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" ht="17.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="146"/>
     </row>
-    <row r="11" spans="2:6" ht="17.850000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:6" ht="17.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B11" s="147"/>
       <c r="C11" s="146"/>
       <c r="D11" s="146"/>
     </row>
-    <row r="12" spans="2:6" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:6" ht="17.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="141" t="s">
         <v>157</v>
       </c>
       <c r="C12" s="141"/>
       <c r="D12" s="146"/>
     </row>
-    <row r="13" spans="2:6" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:6" ht="17.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="142" t="s">
         <v>257</v>
       </c>
       <c r="D13" s="146"/>
     </row>
-    <row r="14" spans="2:6" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:6" ht="17.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="142" t="s">
         <v>258</v>
       </c>
       <c r="D14" s="146"/>
     </row>
-    <row r="15" spans="2:6" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:6" ht="17.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="142" t="s">
         <v>259</v>
       </c>
       <c r="D15" s="146"/>
     </row>
-    <row r="16" spans="2:6" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:6" ht="17.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="142" t="s">
         <v>260</v>
       </c>
       <c r="D16" s="146"/>
     </row>
-    <row r="17" spans="2:4" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4" ht="17.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="142" t="s">
         <v>261</v>
       </c>
       <c r="D17" s="146"/>
     </row>
-    <row r="18" spans="2:4" ht="17.850000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" ht="17.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="146"/>
       <c r="D18" s="146"/>
     </row>
-    <row r="19" spans="2:4" ht="17.850000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:4" ht="17.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B19" s="147"/>
       <c r="D19" s="146"/>
     </row>
-    <row r="20" spans="2:4" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:4" ht="17.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="141" t="s">
         <v>165</v>
       </c>
       <c r="D20" s="146"/>
     </row>
-    <row r="21" spans="2:4" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:4" ht="17.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="142" t="s">
         <v>166</v>
       </c>
       <c r="D21" s="146"/>
     </row>
-    <row r="22" spans="2:4" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:4" ht="17.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="142" t="s">
         <v>169</v>
       </c>
       <c r="D22" s="146"/>
     </row>
-    <row r="23" spans="2:4" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:4" ht="17.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="142" t="s">
         <v>167</v>
       </c>
       <c r="D23" s="146"/>
     </row>
-    <row r="24" spans="2:4" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:4" ht="17.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="142" t="s">
         <v>168</v>
       </c>
       <c r="D24" s="146"/>
     </row>
-    <row r="25" spans="2:4" ht="17.850000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" ht="17.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="146"/>
       <c r="D25" s="146"/>
     </row>
-    <row r="26" spans="2:4" ht="17.850000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:4" ht="17.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B26" s="147"/>
       <c r="C26" s="141"/>
       <c r="D26" s="146"/>
     </row>
-    <row r="27" spans="2:4" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:4" ht="17.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="141" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:4" ht="62.5" x14ac:dyDescent="0.25">
       <c r="B28" s="142" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="17.850000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" ht="17.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C29" s="146"/>
       <c r="D29" s="146"/>
     </row>
-    <row r="30" spans="2:4" ht="17.850000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:4" ht="17.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B30" s="147"/>
       <c r="C30" s="141"/>
       <c r="D30" s="146"/>
     </row>
-    <row r="31" spans="2:4" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:4" ht="17.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="141" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:4" ht="17.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="148"/>
     </row>
-    <row r="33" spans="2:4" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:4" ht="17.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="148" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:4" ht="17.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="142" t="s">
         <v>164</v>
       </c>
       <c r="D34" s="146"/>
     </row>
-    <row r="35" spans="2:4" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:4" ht="37.5" x14ac:dyDescent="0.25">
       <c r="B35" s="142" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="41" spans="2:4" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:4" ht="17.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="142" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="42" spans="2:4" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:4" ht="17.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="142" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="43" spans="2:4" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:4" ht="17.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C43" s="148"/>
     </row>
-    <row r="44" spans="2:4" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:4" ht="17.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="148" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="2:4" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:4" ht="17.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="142" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="46" spans="2:4" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:4" ht="17.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="142" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="50" spans="2:3" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:3" ht="17.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="142" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="51" spans="2:3" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:3" ht="17.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C51" s="148"/>
     </row>
-    <row r="52" spans="2:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:3" ht="15.5" x14ac:dyDescent="0.25">
       <c r="B52" s="148" t="s">
         <v>138</v>
       </c>
       <c r="C52" s="149"/>
     </row>
-    <row r="53" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:3" ht="25" x14ac:dyDescent="0.25">
       <c r="B53" s="149" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="54" spans="2:3" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:3" ht="17.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C54" s="148"/>
     </row>
-    <row r="55" spans="2:3" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:3" ht="17.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="148" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="2:3" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:3" ht="17.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="142" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="57" spans="2:3" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:3" ht="17.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="142" t="s">
         <v>269</v>
       </c>
@@ -8345,22 +8373,24 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J386"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" style="40" customWidth="1"/>
-    <col min="2" max="2" width="3.140625" customWidth="1"/>
-    <col min="3" max="3" width="66.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
-    <col min="6" max="7" width="10.5703125" customWidth="1"/>
-    <col min="8" max="8" width="218.42578125" style="85" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="86"/>
-    <col min="10" max="10" width="61.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.54296875" style="40" customWidth="1"/>
+    <col min="2" max="2" width="3.1796875" customWidth="1"/>
+    <col min="3" max="3" width="66.1796875" customWidth="1"/>
+    <col min="4" max="4" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" customWidth="1"/>
+    <col min="6" max="7" width="10.54296875" customWidth="1"/>
+    <col min="8" max="8" width="218.453125" style="85" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="86"/>
+    <col min="10" max="10" width="61.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="40"/>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
@@ -8371,7 +8401,7 @@
       <c r="H1" s="79"/>
       <c r="I1" s="86"/>
     </row>
-    <row r="2" spans="1:9" s="87" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="87" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="40"/>
       <c r="B2" s="40"/>
       <c r="C2" s="71" t="s">
@@ -8386,7 +8416,7 @@
       </c>
       <c r="I2" s="86"/>
     </row>
-    <row r="3" spans="1:9" s="87" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="87" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="40"/>
       <c r="B3" s="40"/>
       <c r="C3" s="41" t="s">
@@ -8401,7 +8431,7 @@
       <c r="H3" s="81"/>
       <c r="I3" s="86"/>
     </row>
-    <row r="4" spans="1:9" s="87" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" s="87" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="40"/>
       <c r="B4" s="40"/>
       <c r="C4" s="42"/>
@@ -8412,7 +8442,7 @@
       <c r="H4" s="79"/>
       <c r="I4" s="86"/>
     </row>
-    <row r="5" spans="1:9" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="40"/>
       <c r="C5" s="44" t="s">
         <v>86</v>
@@ -8423,7 +8453,7 @@
       <c r="G5" s="43"/>
       <c r="H5" s="79"/>
     </row>
-    <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="40"/>
       <c r="C6" s="45"/>
       <c r="D6" s="43"/>
@@ -8432,7 +8462,7 @@
       <c r="G6" s="43"/>
       <c r="H6" s="79"/>
     </row>
-    <row r="7" spans="1:9" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="46"/>
       <c r="C7" s="43" t="s">
         <v>223</v>
@@ -8443,7 +8473,7 @@
       <c r="G7" s="43"/>
       <c r="H7" s="49"/>
     </row>
-    <row r="8" spans="1:9" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="126"/>
       <c r="C8" s="43" t="s">
         <v>152</v>
@@ -8454,7 +8484,7 @@
       <c r="G8" s="43"/>
       <c r="H8" s="163"/>
     </row>
-    <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="40"/>
       <c r="C9" s="40"/>
       <c r="D9" s="40"/>
@@ -8463,7 +8493,7 @@
       <c r="G9" s="43"/>
       <c r="H9" s="79"/>
     </row>
-    <row r="10" spans="1:9" s="87" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" s="87" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="40"/>
       <c r="B10" s="40"/>
       <c r="C10" s="43" t="s">
@@ -8476,7 +8506,7 @@
       <c r="H10" s="79"/>
       <c r="I10" s="86"/>
     </row>
-    <row r="11" spans="1:9" s="87" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" s="87" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="40"/>
       <c r="B11" s="40"/>
       <c r="C11" s="43" t="s">
@@ -8489,7 +8519,7 @@
       <c r="H11" s="79"/>
       <c r="I11" s="86"/>
     </row>
-    <row r="12" spans="1:9" s="87" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" s="87" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="40"/>
       <c r="B12" s="40"/>
       <c r="C12" s="43" t="s">
@@ -8502,7 +8532,7 @@
       <c r="H12" s="79"/>
       <c r="I12" s="86"/>
     </row>
-    <row r="13" spans="1:9" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="40"/>
       <c r="C13" s="40" t="s">
         <v>234</v>
@@ -8513,7 +8543,7 @@
       <c r="G13" s="43"/>
       <c r="H13" s="79"/>
     </row>
-    <row r="14" spans="1:9" s="87" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="87" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="40"/>
       <c r="B14" s="40"/>
       <c r="C14" s="43"/>
@@ -8524,7 +8554,7 @@
       <c r="H14" s="79"/>
       <c r="I14" s="86"/>
     </row>
-    <row r="15" spans="1:9" s="87" customFormat="1" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" s="87" customFormat="1" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="88"/>
       <c r="C15" s="88"/>
@@ -8535,7 +8565,7 @@
       <c r="H15" s="89"/>
       <c r="I15" s="86"/>
     </row>
-    <row r="16" spans="1:9" s="87" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" s="87" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="40"/>
       <c r="B16" s="43"/>
       <c r="C16" s="48" t="s">
@@ -8558,7 +8588,7 @@
       </c>
       <c r="I16" s="86"/>
     </row>
-    <row r="17" spans="1:9" s="87" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" s="87" customFormat="1" ht="17.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="43"/>
       <c r="C17" s="49" t="s">
@@ -8575,7 +8605,7 @@
       </c>
       <c r="I17" s="86"/>
     </row>
-    <row r="18" spans="1:9" s="87" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" s="87" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="43"/>
       <c r="C18" s="49" t="s">
@@ -8598,7 +8628,7 @@
       </c>
       <c r="I18" s="86"/>
     </row>
-    <row r="19" spans="1:9" s="87" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" s="87" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="43"/>
       <c r="C19" s="49" t="s">
@@ -8618,7 +8648,7 @@
       </c>
       <c r="I19" s="86"/>
     </row>
-    <row r="20" spans="1:9" s="87" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" s="87" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="43"/>
       <c r="C20" s="49" t="s">
@@ -8641,7 +8671,7 @@
       </c>
       <c r="I20" s="86"/>
     </row>
-    <row r="21" spans="1:9" s="87" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" s="87" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="40"/>
       <c r="B21" s="40"/>
       <c r="C21" s="43"/>
@@ -8652,7 +8682,7 @@
       <c r="H21" s="79"/>
       <c r="I21" s="86"/>
     </row>
-    <row r="22" spans="1:9" s="87" customFormat="1" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" s="87" customFormat="1" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="88"/>
       <c r="C22" s="88"/>
@@ -8663,7 +8693,7 @@
       <c r="H22" s="89"/>
       <c r="I22" s="86"/>
     </row>
-    <row r="23" spans="1:9" s="87" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" s="87" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="40"/>
       <c r="B23" s="43"/>
       <c r="C23" s="48" t="s">
@@ -8686,7 +8716,7 @@
       </c>
       <c r="I23" s="86"/>
     </row>
-    <row r="24" spans="1:9" s="87" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" s="87" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="43"/>
       <c r="C24" s="49" t="s">
@@ -8709,7 +8739,7 @@
       </c>
       <c r="I24" s="86"/>
     </row>
-    <row r="25" spans="1:9" s="87" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" s="87" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="40"/>
       <c r="B25" s="43"/>
       <c r="C25" s="43"/>
@@ -8720,7 +8750,7 @@
       <c r="H25" s="82"/>
       <c r="I25" s="86"/>
     </row>
-    <row r="26" spans="1:9" s="87" customFormat="1" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" s="87" customFormat="1" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="88"/>
       <c r="C26" s="88"/>
@@ -8731,7 +8761,7 @@
       <c r="H26" s="90"/>
       <c r="I26" s="86"/>
     </row>
-    <row r="27" spans="1:9" s="87" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" s="87" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="40"/>
       <c r="B27" s="43"/>
       <c r="C27" s="48" t="s">
@@ -8754,7 +8784,7 @@
       </c>
       <c r="I27" s="86"/>
     </row>
-    <row r="28" spans="1:9" s="87" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" s="87" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="43"/>
       <c r="C28" s="49" t="s">
@@ -8777,7 +8807,7 @@
       </c>
       <c r="I28" s="86"/>
     </row>
-    <row r="29" spans="1:9" s="87" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" s="87" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="40"/>
       <c r="B29" s="43"/>
       <c r="C29" s="43"/>
@@ -8788,7 +8818,7 @@
       <c r="H29" s="82"/>
       <c r="I29" s="86"/>
     </row>
-    <row r="30" spans="1:9" s="87" customFormat="1" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" s="87" customFormat="1" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="88"/>
       <c r="C30" s="88"/>
@@ -8799,7 +8829,7 @@
       <c r="H30" s="90"/>
       <c r="I30" s="86"/>
     </row>
-    <row r="31" spans="1:9" s="87" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" s="87" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="40"/>
       <c r="B31" s="40"/>
       <c r="C31" s="52" t="s">
@@ -8822,7 +8852,7 @@
       </c>
       <c r="I31" s="86"/>
     </row>
-    <row r="32" spans="1:9" s="87" customFormat="1" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" s="87" customFormat="1" ht="41.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="40"/>
       <c r="C32" s="49" t="s">
@@ -8845,7 +8875,7 @@
       </c>
       <c r="I32" s="86"/>
     </row>
-    <row r="33" spans="1:10" s="87" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" s="87" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="40"/>
       <c r="C33" s="49" t="s">
@@ -8868,7 +8898,7 @@
       </c>
       <c r="I33" s="86"/>
     </row>
-    <row r="34" spans="1:10" s="87" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" s="87" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="40"/>
       <c r="C34" s="49"/>
@@ -8880,7 +8910,7 @@
       <c r="I34" s="86"/>
       <c r="J34" s="33"/>
     </row>
-    <row r="35" spans="1:10" s="87" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" s="87" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="40"/>
       <c r="C35" s="49" t="s">
@@ -8904,7 +8934,7 @@
       <c r="I35" s="86"/>
       <c r="J35" s="33"/>
     </row>
-    <row r="36" spans="1:10" s="87" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" s="87" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="40"/>
       <c r="B36" s="40"/>
       <c r="C36" s="49" t="s">
@@ -8928,7 +8958,7 @@
       <c r="I36" s="86"/>
       <c r="J36" s="104"/>
     </row>
-    <row r="37" spans="1:10" s="87" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" s="87" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="40"/>
       <c r="B37" s="40"/>
       <c r="C37" s="49" t="s">
@@ -8952,7 +8982,7 @@
       <c r="I37" s="86"/>
       <c r="J37" s="104"/>
     </row>
-    <row r="38" spans="1:10" s="87" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" s="87" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="40"/>
       <c r="B38" s="40"/>
       <c r="C38" s="49" t="s">
@@ -8976,7 +9006,7 @@
       <c r="I38" s="86"/>
       <c r="J38" s="104"/>
     </row>
-    <row r="39" spans="1:10" s="87" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" s="87" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="43"/>
       <c r="C39" s="43"/>
@@ -8987,7 +9017,7 @@
       <c r="H39" s="82"/>
       <c r="I39" s="86"/>
     </row>
-    <row r="40" spans="1:10" s="87" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" s="87" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="40"/>
       <c r="B40" s="43"/>
       <c r="C40" s="52" t="s">
@@ -9010,7 +9040,7 @@
       </c>
       <c r="I40" s="86"/>
     </row>
-    <row r="41" spans="1:10" s="87" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" s="87" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="43"/>
       <c r="C41" s="43" t="s">
@@ -9030,7 +9060,7 @@
       </c>
       <c r="I41" s="86"/>
     </row>
-    <row r="42" spans="1:10" s="87" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" s="87" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="43"/>
       <c r="C42" s="43" t="s">
@@ -9050,7 +9080,7 @@
       </c>
       <c r="I42" s="86"/>
     </row>
-    <row r="43" spans="1:10" s="87" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" s="87" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="43"/>
       <c r="C43" s="43" t="s">
@@ -9070,7 +9100,7 @@
       </c>
       <c r="I43" s="86"/>
     </row>
-    <row r="44" spans="1:10" s="87" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" s="87" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="43"/>
       <c r="C44" s="49"/>
@@ -9081,7 +9111,7 @@
       <c r="H44" s="82"/>
       <c r="I44" s="86"/>
     </row>
-    <row r="45" spans="1:10" s="87" customFormat="1" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" s="87" customFormat="1" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="43"/>
       <c r="C45" s="88"/>
@@ -9092,7 +9122,7 @@
       <c r="H45" s="90"/>
       <c r="I45" s="86"/>
     </row>
-    <row r="46" spans="1:10" s="87" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" s="87" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="40"/>
       <c r="B46" s="43"/>
       <c r="C46" s="52" t="s">
@@ -9115,7 +9145,7 @@
       </c>
       <c r="I46" s="86"/>
     </row>
-    <row r="47" spans="1:10" s="87" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" s="87" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="43"/>
       <c r="C47" s="105" t="s">
@@ -9139,7 +9169,7 @@
       </c>
       <c r="I47" s="86"/>
     </row>
-    <row r="48" spans="1:10" s="87" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" s="87" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="43"/>
       <c r="C48" s="105" t="s">
@@ -9163,7 +9193,7 @@
       </c>
       <c r="I48" s="86"/>
     </row>
-    <row r="49" spans="1:9" s="87" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" s="87" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="43"/>
       <c r="C49" s="49" t="s">
@@ -9181,7 +9211,7 @@
       <c r="H49" s="82"/>
       <c r="I49" s="86"/>
     </row>
-    <row r="50" spans="1:9" s="87" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" s="87" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="43"/>
       <c r="C50" s="108"/>
@@ -9192,7 +9222,7 @@
       <c r="H50" s="109"/>
       <c r="I50" s="86"/>
     </row>
-    <row r="51" spans="1:9" s="87" customFormat="1" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" s="87" customFormat="1" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="43"/>
       <c r="C51" s="88"/>
@@ -9203,7 +9233,7 @@
       <c r="H51" s="90"/>
       <c r="I51" s="86"/>
     </row>
-    <row r="52" spans="1:9" s="87" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" s="87" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="40"/>
       <c r="B52" s="43"/>
       <c r="C52" s="48" t="s">
@@ -9226,7 +9256,7 @@
       </c>
       <c r="I52" s="86"/>
     </row>
-    <row r="53" spans="1:9" ht="51.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" ht="52" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="43"/>
       <c r="C53" s="49" t="s">
         <v>97</v>
@@ -9247,7 +9277,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="87" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" s="87" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="107"/>
       <c r="C54" s="64" t="s">
@@ -9267,7 +9297,7 @@
       </c>
       <c r="I54" s="86"/>
     </row>
-    <row r="55" spans="1:9" s="87" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" s="87" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="107"/>
       <c r="C55" s="64" t="s">
@@ -9287,7 +9317,7 @@
       </c>
       <c r="I55" s="86"/>
     </row>
-    <row r="56" spans="1:9" s="87" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" s="87" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="43"/>
       <c r="C56" s="43"/>
@@ -9298,7 +9328,7 @@
       <c r="H56" s="82"/>
       <c r="I56" s="86"/>
     </row>
-    <row r="57" spans="1:9" s="87" customFormat="1" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" s="87" customFormat="1" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="88"/>
       <c r="C57" s="88"/>
@@ -9309,7 +9339,7 @@
       <c r="H57" s="90"/>
       <c r="I57" s="86"/>
     </row>
-    <row r="58" spans="1:9" s="87" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" s="87" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="40"/>
       <c r="B58" s="43"/>
       <c r="C58" s="52" t="s">
@@ -9332,7 +9362,7 @@
       </c>
       <c r="I58" s="86"/>
     </row>
-    <row r="59" spans="1:9" s="87" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" s="87" customFormat="1" ht="39" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="43"/>
       <c r="C59" s="72" t="s">
@@ -9345,7 +9375,7 @@
       <c r="H59" s="82"/>
       <c r="I59" s="86"/>
     </row>
-    <row r="60" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" ht="26" x14ac:dyDescent="0.25">
       <c r="B60" s="43"/>
       <c r="C60" s="49" t="s">
         <v>29</v>
@@ -9366,7 +9396,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="43"/>
       <c r="C61" s="49" t="s">
         <v>282</v>
@@ -9387,7 +9417,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="43"/>
       <c r="C62" s="49" t="s">
         <v>283</v>
@@ -9408,7 +9438,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="43"/>
       <c r="C63" s="49" t="s">
         <v>40</v>
@@ -9429,7 +9459,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="43"/>
       <c r="C64" s="49" t="s">
         <v>41</v>
@@ -9450,7 +9480,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" ht="17.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="43"/>
       <c r="C65" s="49" t="s">
         <v>14</v>
@@ -9471,7 +9501,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="43"/>
       <c r="C66" s="49" t="s">
         <v>13</v>
@@ -9492,7 +9522,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="43"/>
       <c r="C67" s="49" t="s">
         <v>27</v>
@@ -9513,7 +9543,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="43"/>
       <c r="C68" s="49" t="s">
         <v>104</v>
@@ -9534,7 +9564,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="69" spans="1:9" s="87" customFormat="1" ht="17.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" s="87" customFormat="1" ht="17.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="43"/>
       <c r="C69" s="43"/>
@@ -9545,7 +9575,7 @@
       <c r="H69" s="82"/>
       <c r="I69" s="86"/>
     </row>
-    <row r="70" spans="1:9" s="87" customFormat="1" ht="17.649999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" s="87" customFormat="1" ht="17.649999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="92"/>
       <c r="C70" s="91"/>
@@ -9556,7 +9586,7 @@
       <c r="H70" s="82"/>
       <c r="I70" s="86"/>
     </row>
-    <row r="71" spans="1:9" s="87" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" s="87" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="40"/>
       <c r="B71" s="93"/>
       <c r="C71" s="74" t="s">
@@ -9575,7 +9605,7 @@
       </c>
       <c r="I71" s="86"/>
     </row>
-    <row r="72" spans="1:9" s="87" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" s="87" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="93"/>
       <c r="C72" s="49" t="s">
@@ -9593,7 +9623,7 @@
       <c r="H72" s="82"/>
       <c r="I72" s="86"/>
     </row>
-    <row r="73" spans="1:9" s="87" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" s="87" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="93"/>
       <c r="C73" s="49" t="s">
@@ -9613,7 +9643,7 @@
       </c>
       <c r="I73" s="86"/>
     </row>
-    <row r="74" spans="1:9" s="87" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" s="87" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="93"/>
       <c r="C74" s="49" t="s">
@@ -9633,7 +9663,7 @@
       </c>
       <c r="I74" s="86"/>
     </row>
-    <row r="75" spans="1:9" s="87" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" s="87" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="93"/>
       <c r="C75" s="49"/>
@@ -9644,7 +9674,7 @@
       <c r="H75" s="72"/>
       <c r="I75" s="86"/>
     </row>
-    <row r="76" spans="1:9" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="93"/>
       <c r="C76" s="43"/>
       <c r="D76" s="43"/>
@@ -9653,7 +9683,7 @@
       <c r="G76" s="43"/>
       <c r="H76" s="82"/>
     </row>
-    <row r="77" spans="1:9" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="93"/>
       <c r="C77" s="70" t="s">
         <v>74</v>
@@ -9664,7 +9694,7 @@
       <c r="G77" s="43"/>
       <c r="H77" s="82"/>
     </row>
-    <row r="78" spans="1:9" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B78" s="93"/>
       <c r="C78" s="47" t="s">
         <v>139</v>
@@ -9675,7 +9705,7 @@
       <c r="G78" s="43"/>
       <c r="H78" s="83"/>
     </row>
-    <row r="79" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" ht="39" x14ac:dyDescent="0.3">
       <c r="B79" s="93"/>
       <c r="C79" s="110" t="s">
         <v>235</v>
@@ -9688,7 +9718,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="93"/>
       <c r="C80" s="43"/>
       <c r="D80" s="43"/>
@@ -9697,7 +9727,7 @@
       <c r="G80" s="43"/>
       <c r="H80" s="82"/>
     </row>
-    <row r="81" spans="2:8" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:8" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="93"/>
       <c r="C81" s="47" t="s">
         <v>118</v>
@@ -9708,7 +9738,7 @@
       <c r="G81" s="54"/>
       <c r="H81" s="72"/>
     </row>
-    <row r="82" spans="2:8" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:8" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="93"/>
       <c r="C82" s="43" t="s">
         <v>48</v>
@@ -9726,7 +9756,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="83" spans="2:8" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:8" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="93"/>
       <c r="C83" s="43" t="s">
         <v>138</v>
@@ -9742,7 +9772,7 @@
       <c r="G83" s="43"/>
       <c r="H83" s="72"/>
     </row>
-    <row r="84" spans="2:8" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:8" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="93"/>
       <c r="C84" s="40" t="s">
         <v>49</v>
@@ -9758,7 +9788,7 @@
       <c r="G84" s="43"/>
       <c r="H84" s="72"/>
     </row>
-    <row r="85" spans="2:8" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:8" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="93"/>
       <c r="C85" s="40"/>
       <c r="D85" s="63"/>
@@ -9767,7 +9797,7 @@
       <c r="G85" s="43"/>
       <c r="H85" s="72"/>
     </row>
-    <row r="86" spans="2:8" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:8" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B86" s="93"/>
       <c r="C86" s="98" t="s">
         <v>116</v>
@@ -9778,7 +9808,7 @@
       <c r="G86" s="43"/>
       <c r="H86" s="72"/>
     </row>
-    <row r="87" spans="2:8" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:8" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="93"/>
       <c r="C87" s="40" t="s">
         <v>48</v>
@@ -9794,7 +9824,7 @@
       <c r="G87" s="43"/>
       <c r="H87" s="72"/>
     </row>
-    <row r="88" spans="2:8" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:8" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="93"/>
       <c r="C88" s="43" t="s">
         <v>138</v>
@@ -9810,7 +9840,7 @@
       <c r="G88" s="43"/>
       <c r="H88" s="72"/>
     </row>
-    <row r="89" spans="2:8" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:8" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="93"/>
       <c r="C89" s="40" t="s">
         <v>49</v>
@@ -9826,7 +9856,7 @@
       <c r="G89" s="43"/>
       <c r="H89" s="72"/>
     </row>
-    <row r="90" spans="2:8" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:8" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="93"/>
       <c r="C90" s="40"/>
       <c r="D90" s="63"/>
@@ -9835,7 +9865,7 @@
       <c r="G90" s="43"/>
       <c r="H90" s="72"/>
     </row>
-    <row r="91" spans="2:8" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:8" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91" s="93"/>
       <c r="C91" s="98" t="s">
         <v>117</v>
@@ -9846,7 +9876,7 @@
       <c r="G91" s="43"/>
       <c r="H91" s="72"/>
     </row>
-    <row r="92" spans="2:8" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:8" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="93"/>
       <c r="C92" s="40" t="s">
         <v>48</v>
@@ -9862,7 +9892,7 @@
       <c r="G92" s="43"/>
       <c r="H92" s="72"/>
     </row>
-    <row r="93" spans="2:8" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:8" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="93"/>
       <c r="C93" s="43" t="s">
         <v>138</v>
@@ -9878,7 +9908,7 @@
       <c r="G93" s="43"/>
       <c r="H93" s="72"/>
     </row>
-    <row r="94" spans="2:8" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:8" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="93"/>
       <c r="C94" s="40" t="s">
         <v>49</v>
@@ -9894,7 +9924,7 @@
       <c r="G94" s="43"/>
       <c r="H94" s="82"/>
     </row>
-    <row r="95" spans="2:8" ht="17.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:8" ht="17.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B95" s="94"/>
       <c r="C95" s="40"/>
       <c r="D95" s="40"/>
@@ -9903,7 +9933,7 @@
       <c r="G95" s="43"/>
       <c r="H95" s="82"/>
     </row>
-    <row r="96" spans="2:8" ht="17.649999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:8" ht="17.649999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B96" s="91"/>
       <c r="C96" s="91"/>
       <c r="D96" s="91"/>
@@ -9912,7 +9942,7 @@
       <c r="G96" s="43"/>
       <c r="H96" s="82"/>
     </row>
-    <row r="97" spans="1:8" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="43"/>
       <c r="C97" s="43"/>
       <c r="D97" s="43"/>
@@ -9921,7 +9951,7 @@
       <c r="G97" s="43"/>
       <c r="H97" s="82"/>
     </row>
-    <row r="98" spans="1:8" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="43"/>
       <c r="C98" s="43"/>
       <c r="D98" s="43"/>
@@ -9930,7 +9960,7 @@
       <c r="G98" s="43"/>
       <c r="H98" s="82"/>
     </row>
-    <row r="99" spans="1:8" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="43"/>
       <c r="C99" s="43"/>
       <c r="D99" s="43"/>
@@ -9939,7 +9969,7 @@
       <c r="G99" s="43"/>
       <c r="H99" s="82"/>
     </row>
-    <row r="100" spans="1:8" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="43"/>
       <c r="C100" s="43"/>
       <c r="D100" s="43"/>
@@ -9948,7 +9978,7 @@
       <c r="G100" s="43"/>
       <c r="H100" s="82"/>
     </row>
-    <row r="101" spans="1:8" s="119" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" s="119" customFormat="1" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A101" s="170"/>
       <c r="B101" s="170"/>
       <c r="C101" s="171" t="s">
@@ -9960,7 +9990,7 @@
       <c r="G101" s="170"/>
       <c r="H101" s="82"/>
     </row>
-    <row r="102" spans="1:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="170"/>
       <c r="B102" s="170"/>
       <c r="C102" s="170"/>
@@ -9970,991 +10000,991 @@
       <c r="G102" s="170"/>
       <c r="H102" s="82"/>
     </row>
-    <row r="103" spans="1:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H103" s="120"/>
     </row>
-    <row r="104" spans="1:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H104" s="120"/>
     </row>
-    <row r="105" spans="1:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H105" s="120"/>
     </row>
-    <row r="106" spans="1:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H106" s="120"/>
     </row>
-    <row r="107" spans="1:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H107" s="120"/>
     </row>
-    <row r="108" spans="1:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H108" s="120"/>
     </row>
-    <row r="109" spans="1:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H109" s="120"/>
     </row>
-    <row r="110" spans="1:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H110" s="120"/>
     </row>
-    <row r="111" spans="1:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H111" s="120"/>
     </row>
-    <row r="112" spans="1:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H112" s="120"/>
     </row>
-    <row r="113" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H113" s="120"/>
     </row>
-    <row r="114" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H114" s="120"/>
     </row>
-    <row r="115" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H115" s="120"/>
     </row>
-    <row r="116" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H116" s="120"/>
     </row>
-    <row r="117" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H117" s="120"/>
     </row>
-    <row r="118" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H118" s="120"/>
     </row>
-    <row r="119" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H119" s="120"/>
     </row>
-    <row r="120" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H120" s="120"/>
     </row>
-    <row r="121" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H121" s="120"/>
     </row>
-    <row r="122" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H122" s="120"/>
     </row>
-    <row r="123" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H123" s="120"/>
     </row>
-    <row r="124" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H124" s="120"/>
     </row>
-    <row r="125" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H125" s="120"/>
     </row>
-    <row r="126" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H126" s="120"/>
     </row>
-    <row r="127" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H127" s="120"/>
     </row>
-    <row r="128" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H128" s="120"/>
     </row>
-    <row r="129" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H129" s="120"/>
     </row>
-    <row r="130" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H130" s="120"/>
     </row>
-    <row r="131" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H131" s="120"/>
     </row>
-    <row r="132" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H132" s="120"/>
     </row>
-    <row r="133" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H133" s="120"/>
     </row>
-    <row r="134" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H134" s="120"/>
     </row>
-    <row r="135" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H135" s="120"/>
     </row>
-    <row r="136" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H136" s="120"/>
     </row>
-    <row r="137" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H137" s="120"/>
     </row>
-    <row r="138" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H138" s="120"/>
     </row>
-    <row r="139" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H139" s="120"/>
     </row>
-    <row r="140" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H140" s="120"/>
     </row>
-    <row r="141" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H141" s="120"/>
     </row>
-    <row r="142" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H142" s="120"/>
     </row>
-    <row r="143" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H143" s="120"/>
     </row>
-    <row r="144" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H144" s="120"/>
     </row>
-    <row r="145" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H145" s="120"/>
     </row>
-    <row r="146" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H146" s="120"/>
     </row>
-    <row r="147" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H147" s="120"/>
     </row>
-    <row r="148" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H148" s="120"/>
     </row>
-    <row r="149" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H149" s="120"/>
     </row>
-    <row r="150" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H150" s="120"/>
     </row>
-    <row r="151" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H151" s="120"/>
     </row>
-    <row r="152" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H152" s="120"/>
     </row>
-    <row r="153" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H153" s="120"/>
     </row>
-    <row r="154" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H154" s="120"/>
     </row>
-    <row r="155" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H155" s="120"/>
     </row>
-    <row r="156" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H156" s="120"/>
     </row>
-    <row r="157" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H157" s="120"/>
     </row>
-    <row r="158" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H158" s="120"/>
     </row>
-    <row r="159" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H159" s="120"/>
     </row>
-    <row r="160" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H160" s="120"/>
     </row>
-    <row r="161" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H161" s="120"/>
     </row>
-    <row r="162" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H162" s="120"/>
     </row>
-    <row r="163" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H163" s="120"/>
     </row>
-    <row r="164" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H164" s="120"/>
     </row>
-    <row r="165" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H165" s="120"/>
     </row>
-    <row r="166" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H166" s="120"/>
     </row>
-    <row r="167" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H167" s="120"/>
     </row>
-    <row r="168" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H168" s="120"/>
     </row>
-    <row r="169" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H169" s="120"/>
     </row>
-    <row r="170" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H170" s="120"/>
     </row>
-    <row r="171" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H171" s="120"/>
     </row>
-    <row r="172" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H172" s="120"/>
     </row>
-    <row r="173" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H173" s="120"/>
     </row>
-    <row r="174" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H174" s="120"/>
     </row>
-    <row r="175" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H175" s="120"/>
     </row>
-    <row r="176" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H176" s="120"/>
     </row>
-    <row r="177" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H177" s="120"/>
     </row>
-    <row r="178" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H178" s="120"/>
     </row>
-    <row r="179" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H179" s="120"/>
     </row>
-    <row r="180" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H180" s="120"/>
     </row>
-    <row r="181" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H181" s="120"/>
     </row>
-    <row r="182" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H182" s="120"/>
     </row>
-    <row r="183" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H183" s="120"/>
     </row>
-    <row r="184" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H184" s="120"/>
     </row>
-    <row r="185" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H185" s="120"/>
     </row>
-    <row r="186" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H186" s="120"/>
     </row>
-    <row r="187" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H187" s="120"/>
     </row>
-    <row r="188" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H188" s="120"/>
     </row>
-    <row r="189" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H189" s="120"/>
     </row>
-    <row r="190" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H190" s="120"/>
     </row>
-    <row r="191" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H191" s="120"/>
     </row>
-    <row r="192" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H192" s="120"/>
     </row>
-    <row r="193" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H193" s="120"/>
     </row>
-    <row r="194" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H194" s="120"/>
     </row>
-    <row r="195" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H195" s="120"/>
     </row>
-    <row r="196" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H196" s="120"/>
     </row>
-    <row r="197" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H197" s="120"/>
     </row>
-    <row r="198" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H198" s="120"/>
     </row>
-    <row r="199" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H199" s="120"/>
     </row>
-    <row r="200" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H200" s="120"/>
     </row>
-    <row r="201" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H201" s="120"/>
     </row>
-    <row r="202" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H202" s="120"/>
     </row>
-    <row r="203" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H203" s="120"/>
     </row>
-    <row r="204" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H204" s="120"/>
     </row>
-    <row r="205" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H205" s="120"/>
     </row>
-    <row r="206" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H206" s="120"/>
     </row>
-    <row r="207" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H207" s="120"/>
     </row>
-    <row r="208" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H208" s="120"/>
     </row>
-    <row r="209" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H209" s="120"/>
     </row>
-    <row r="210" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H210" s="120"/>
     </row>
-    <row r="211" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H211" s="120"/>
     </row>
-    <row r="212" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H212" s="120"/>
     </row>
-    <row r="213" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H213" s="120"/>
     </row>
-    <row r="214" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H214" s="120"/>
     </row>
-    <row r="215" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H215" s="120"/>
     </row>
-    <row r="216" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H216" s="120"/>
     </row>
-    <row r="217" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H217" s="120"/>
     </row>
-    <row r="218" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H218" s="120"/>
     </row>
-    <row r="219" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H219" s="120"/>
     </row>
-    <row r="220" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H220" s="120"/>
     </row>
-    <row r="221" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H221" s="120"/>
     </row>
-    <row r="222" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H222" s="120"/>
     </row>
-    <row r="223" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H223" s="120"/>
     </row>
-    <row r="224" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H224" s="120"/>
     </row>
-    <row r="225" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H225" s="120"/>
     </row>
-    <row r="226" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H226" s="120"/>
     </row>
-    <row r="227" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H227" s="120"/>
     </row>
-    <row r="228" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H228" s="120"/>
     </row>
-    <row r="229" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H229" s="120"/>
     </row>
-    <row r="230" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H230" s="120"/>
     </row>
-    <row r="231" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H231" s="120"/>
     </row>
-    <row r="232" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H232" s="120"/>
     </row>
-    <row r="233" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H233" s="120"/>
     </row>
-    <row r="234" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H234" s="120"/>
     </row>
-    <row r="235" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H235" s="120"/>
     </row>
-    <row r="236" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H236" s="120"/>
     </row>
-    <row r="237" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H237" s="120"/>
     </row>
-    <row r="238" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H238" s="120"/>
     </row>
-    <row r="239" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H239" s="120"/>
     </row>
-    <row r="240" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="8:8" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H240" s="120"/>
     </row>
-    <row r="241" spans="8:9" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="8:9" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H241" s="120"/>
     </row>
-    <row r="242" spans="8:9" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="8:9" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H242" s="120"/>
     </row>
-    <row r="243" spans="8:9" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="8:9" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H243" s="120"/>
     </row>
-    <row r="244" spans="8:9" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="8:9" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H244" s="120"/>
     </row>
-    <row r="245" spans="8:9" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="8:9" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H245" s="120"/>
     </row>
-    <row r="246" spans="8:9" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="8:9" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H246" s="120"/>
     </row>
-    <row r="247" spans="8:9" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="8:9" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H247" s="120"/>
     </row>
-    <row r="248" spans="8:9" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="8:9" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H248" s="120"/>
     </row>
-    <row r="249" spans="8:9" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="8:9" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H249" s="120"/>
     </row>
-    <row r="250" spans="8:9" s="119" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="8:9" s="119" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H250" s="120"/>
     </row>
-    <row r="251" spans="8:9" s="122" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="8:9" s="122" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H251" s="121"/>
       <c r="I251" s="119"/>
     </row>
-    <row r="252" spans="8:9" s="122" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="8:9" s="122" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H252" s="121"/>
       <c r="I252" s="119"/>
     </row>
-    <row r="253" spans="8:9" s="122" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="8:9" s="122" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H253" s="121"/>
       <c r="I253" s="119"/>
     </row>
-    <row r="254" spans="8:9" s="122" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="8:9" s="122" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H254" s="121"/>
       <c r="I254" s="119"/>
     </row>
-    <row r="255" spans="8:9" s="122" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="8:9" s="122" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H255" s="121"/>
       <c r="I255" s="119"/>
     </row>
-    <row r="256" spans="8:9" s="122" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="8:9" s="122" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H256" s="121"/>
       <c r="I256" s="119"/>
     </row>
-    <row r="257" spans="8:9" s="122" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="8:9" s="122" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H257" s="121"/>
       <c r="I257" s="119"/>
     </row>
-    <row r="258" spans="8:9" s="122" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="8:9" s="122" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H258" s="121"/>
       <c r="I258" s="119"/>
     </row>
-    <row r="259" spans="8:9" s="122" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="8:9" s="122" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H259" s="121"/>
       <c r="I259" s="119"/>
     </row>
-    <row r="260" spans="8:9" s="122" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="8:9" s="122" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H260" s="121"/>
       <c r="I260" s="119"/>
     </row>
-    <row r="261" spans="8:9" s="122" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="8:9" s="122" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H261" s="121"/>
       <c r="I261" s="119"/>
     </row>
-    <row r="262" spans="8:9" s="122" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="8:9" s="122" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H262" s="121"/>
       <c r="I262" s="119"/>
     </row>
-    <row r="263" spans="8:9" s="122" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="8:9" s="122" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H263" s="121"/>
       <c r="I263" s="119"/>
     </row>
-    <row r="264" spans="8:9" s="122" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="8:9" s="122" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H264" s="121"/>
       <c r="I264" s="119"/>
     </row>
-    <row r="265" spans="8:9" s="122" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="8:9" s="122" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H265" s="121"/>
       <c r="I265" s="119"/>
     </row>
-    <row r="266" spans="8:9" s="122" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="8:9" s="122" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H266" s="121"/>
       <c r="I266" s="119"/>
     </row>
-    <row r="267" spans="8:9" s="122" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="8:9" s="122" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H267" s="121"/>
       <c r="I267" s="119"/>
     </row>
-    <row r="268" spans="8:9" s="122" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="8:9" s="122" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H268" s="121"/>
       <c r="I268" s="119"/>
     </row>
-    <row r="269" spans="8:9" s="122" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="8:9" s="122" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H269" s="121"/>
       <c r="I269" s="119"/>
     </row>
-    <row r="270" spans="8:9" s="122" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="8:9" s="122" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H270" s="121"/>
       <c r="I270" s="119"/>
     </row>
-    <row r="271" spans="8:9" s="122" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="8:9" s="122" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H271" s="121"/>
       <c r="I271" s="119"/>
     </row>
-    <row r="272" spans="8:9" s="122" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="8:9" s="122" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H272" s="121"/>
       <c r="I272" s="119"/>
     </row>
-    <row r="273" spans="8:9" s="122" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="8:9" s="122" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H273" s="121"/>
       <c r="I273" s="119"/>
     </row>
-    <row r="274" spans="8:9" s="122" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="8:9" s="122" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H274" s="121"/>
       <c r="I274" s="119"/>
     </row>
-    <row r="275" spans="8:9" s="122" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="8:9" s="122" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H275" s="121"/>
       <c r="I275" s="119"/>
     </row>
-    <row r="276" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H276" s="123"/>
       <c r="I276" s="86"/>
     </row>
-    <row r="277" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H277" s="123"/>
       <c r="I277" s="86"/>
     </row>
-    <row r="278" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H278" s="123"/>
       <c r="I278" s="86"/>
     </row>
-    <row r="279" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H279" s="123"/>
       <c r="I279" s="86"/>
     </row>
-    <row r="280" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H280" s="123"/>
       <c r="I280" s="86"/>
     </row>
-    <row r="281" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H281" s="123"/>
       <c r="I281" s="86"/>
     </row>
-    <row r="282" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H282" s="123"/>
       <c r="I282" s="86"/>
     </row>
-    <row r="283" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H283" s="123"/>
       <c r="I283" s="86"/>
     </row>
-    <row r="284" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H284" s="123"/>
       <c r="I284" s="86"/>
     </row>
-    <row r="285" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H285" s="123"/>
       <c r="I285" s="86"/>
     </row>
-    <row r="286" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H286" s="123"/>
       <c r="I286" s="86"/>
     </row>
-    <row r="287" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H287" s="123"/>
       <c r="I287" s="86"/>
     </row>
-    <row r="288" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H288" s="123"/>
       <c r="I288" s="86"/>
     </row>
-    <row r="289" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H289" s="123"/>
       <c r="I289" s="86"/>
     </row>
-    <row r="290" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H290" s="123"/>
       <c r="I290" s="86"/>
     </row>
-    <row r="291" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H291" s="123"/>
       <c r="I291" s="86"/>
     </row>
-    <row r="292" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H292" s="123"/>
       <c r="I292" s="86"/>
     </row>
-    <row r="293" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H293" s="123"/>
       <c r="I293" s="86"/>
     </row>
-    <row r="294" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H294" s="123"/>
       <c r="I294" s="86"/>
     </row>
-    <row r="295" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H295" s="123"/>
       <c r="I295" s="86"/>
     </row>
-    <row r="296" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H296" s="123"/>
       <c r="I296" s="86"/>
     </row>
-    <row r="297" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H297" s="123"/>
       <c r="I297" s="86"/>
     </row>
-    <row r="298" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H298" s="123"/>
       <c r="I298" s="86"/>
     </row>
-    <row r="299" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H299" s="123"/>
       <c r="I299" s="86"/>
     </row>
-    <row r="300" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H300" s="123"/>
       <c r="I300" s="86"/>
     </row>
-    <row r="301" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H301" s="123"/>
       <c r="I301" s="86"/>
     </row>
-    <row r="302" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H302" s="123"/>
       <c r="I302" s="86"/>
     </row>
-    <row r="303" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H303" s="123"/>
       <c r="I303" s="86"/>
     </row>
-    <row r="304" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H304" s="123"/>
       <c r="I304" s="86"/>
     </row>
-    <row r="305" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H305" s="123"/>
       <c r="I305" s="86"/>
     </row>
-    <row r="306" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H306" s="123"/>
       <c r="I306" s="86"/>
     </row>
-    <row r="307" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H307" s="123"/>
       <c r="I307" s="86"/>
     </row>
-    <row r="308" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H308" s="123"/>
       <c r="I308" s="86"/>
     </row>
-    <row r="309" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H309" s="123"/>
       <c r="I309" s="86"/>
     </row>
-    <row r="310" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H310" s="123"/>
       <c r="I310" s="86"/>
     </row>
-    <row r="311" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H311" s="123"/>
       <c r="I311" s="86"/>
     </row>
-    <row r="312" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H312" s="123"/>
       <c r="I312" s="86"/>
     </row>
-    <row r="313" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H313" s="123"/>
       <c r="I313" s="86"/>
     </row>
-    <row r="314" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H314" s="123"/>
       <c r="I314" s="86"/>
     </row>
-    <row r="315" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H315" s="123"/>
       <c r="I315" s="86"/>
     </row>
-    <row r="316" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H316" s="123"/>
       <c r="I316" s="86"/>
     </row>
-    <row r="317" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H317" s="123"/>
       <c r="I317" s="86"/>
     </row>
-    <row r="318" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H318" s="123"/>
       <c r="I318" s="86"/>
     </row>
-    <row r="319" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H319" s="123"/>
       <c r="I319" s="86"/>
     </row>
-    <row r="320" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H320" s="123"/>
       <c r="I320" s="86"/>
     </row>
-    <row r="321" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H321" s="123"/>
       <c r="I321" s="86"/>
     </row>
-    <row r="322" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H322" s="123"/>
       <c r="I322" s="86"/>
     </row>
-    <row r="323" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H323" s="123"/>
       <c r="I323" s="86"/>
     </row>
-    <row r="324" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H324" s="123"/>
       <c r="I324" s="86"/>
     </row>
-    <row r="325" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H325" s="123"/>
       <c r="I325" s="86"/>
     </row>
-    <row r="326" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H326" s="123"/>
       <c r="I326" s="86"/>
     </row>
-    <row r="327" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H327" s="123"/>
       <c r="I327" s="86"/>
     </row>
-    <row r="328" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H328" s="123"/>
       <c r="I328" s="86"/>
     </row>
-    <row r="329" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H329" s="123"/>
       <c r="I329" s="86"/>
     </row>
-    <row r="330" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H330" s="123"/>
       <c r="I330" s="86"/>
     </row>
-    <row r="331" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H331" s="123"/>
       <c r="I331" s="86"/>
     </row>
-    <row r="332" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H332" s="123"/>
       <c r="I332" s="86"/>
     </row>
-    <row r="333" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H333" s="123"/>
       <c r="I333" s="86"/>
     </row>
-    <row r="334" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H334" s="123"/>
       <c r="I334" s="86"/>
     </row>
-    <row r="335" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H335" s="123"/>
       <c r="I335" s="86"/>
     </row>
-    <row r="336" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H336" s="123"/>
       <c r="I336" s="86"/>
     </row>
-    <row r="337" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H337" s="123"/>
       <c r="I337" s="86"/>
     </row>
-    <row r="338" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H338" s="123"/>
       <c r="I338" s="86"/>
     </row>
-    <row r="339" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H339" s="123"/>
       <c r="I339" s="86"/>
     </row>
-    <row r="340" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H340" s="123"/>
       <c r="I340" s="86"/>
     </row>
-    <row r="341" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H341" s="123"/>
       <c r="I341" s="86"/>
     </row>
-    <row r="342" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H342" s="123"/>
       <c r="I342" s="86"/>
     </row>
-    <row r="343" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H343" s="123"/>
       <c r="I343" s="86"/>
     </row>
-    <row r="344" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H344" s="123"/>
       <c r="I344" s="86"/>
     </row>
-    <row r="345" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H345" s="123"/>
       <c r="I345" s="86"/>
     </row>
-    <row r="346" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H346" s="123"/>
       <c r="I346" s="86"/>
     </row>
-    <row r="347" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H347" s="123"/>
       <c r="I347" s="86"/>
     </row>
-    <row r="348" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H348" s="123"/>
       <c r="I348" s="86"/>
     </row>
-    <row r="349" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H349" s="123"/>
       <c r="I349" s="86"/>
     </row>
-    <row r="350" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H350" s="123"/>
       <c r="I350" s="86"/>
     </row>
-    <row r="351" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H351" s="123"/>
       <c r="I351" s="86"/>
     </row>
-    <row r="352" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H352" s="123"/>
       <c r="I352" s="86"/>
     </row>
-    <row r="353" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H353" s="123"/>
       <c r="I353" s="86"/>
     </row>
-    <row r="354" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H354" s="123"/>
       <c r="I354" s="86"/>
     </row>
-    <row r="355" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H355" s="123"/>
       <c r="I355" s="86"/>
     </row>
-    <row r="356" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H356" s="123"/>
       <c r="I356" s="86"/>
     </row>
-    <row r="357" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H357" s="123"/>
       <c r="I357" s="86"/>
     </row>
-    <row r="358" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H358" s="123"/>
       <c r="I358" s="86"/>
     </row>
-    <row r="359" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H359" s="123"/>
       <c r="I359" s="86"/>
     </row>
-    <row r="360" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H360" s="123"/>
       <c r="I360" s="86"/>
     </row>
-    <row r="361" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H361" s="123"/>
       <c r="I361" s="86"/>
     </row>
-    <row r="362" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H362" s="123"/>
       <c r="I362" s="86"/>
     </row>
-    <row r="363" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H363" s="123"/>
       <c r="I363" s="86"/>
     </row>
-    <row r="364" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H364" s="123"/>
       <c r="I364" s="86"/>
     </row>
-    <row r="365" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H365" s="123"/>
       <c r="I365" s="86"/>
     </row>
-    <row r="366" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H366" s="123"/>
       <c r="I366" s="86"/>
     </row>
-    <row r="367" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H367" s="123"/>
       <c r="I367" s="86"/>
     </row>
-    <row r="368" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H368" s="123"/>
       <c r="I368" s="86"/>
     </row>
-    <row r="369" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H369" s="123"/>
       <c r="I369" s="86"/>
     </row>
-    <row r="370" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H370" s="123"/>
       <c r="I370" s="86"/>
     </row>
-    <row r="371" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H371" s="123"/>
       <c r="I371" s="86"/>
     </row>
-    <row r="372" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H372" s="123"/>
       <c r="I372" s="86"/>
     </row>
-    <row r="373" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H373" s="123"/>
       <c r="I373" s="86"/>
     </row>
-    <row r="374" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H374" s="123"/>
       <c r="I374" s="86"/>
     </row>
-    <row r="375" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H375" s="123"/>
       <c r="I375" s="86"/>
     </row>
-    <row r="376" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H376" s="123"/>
       <c r="I376" s="86"/>
     </row>
-    <row r="377" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H377" s="123"/>
       <c r="I377" s="86"/>
     </row>
-    <row r="378" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H378" s="123"/>
       <c r="I378" s="86"/>
     </row>
-    <row r="379" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H379" s="123"/>
       <c r="I379" s="86"/>
     </row>
-    <row r="380" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H380" s="123"/>
       <c r="I380" s="86"/>
     </row>
-    <row r="381" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H381" s="123"/>
       <c r="I381" s="86"/>
     </row>
-    <row r="382" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H382" s="123"/>
       <c r="I382" s="86"/>
     </row>
-    <row r="383" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H383" s="123"/>
       <c r="I383" s="86"/>
     </row>
-    <row r="384" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H384" s="123"/>
       <c r="I384" s="86"/>
     </row>
-    <row r="385" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H385" s="123"/>
       <c r="I385" s="86"/>
     </row>
-    <row r="386" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="8:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H386" s="123"/>
       <c r="I386" s="86"/>
     </row>
@@ -11021,20 +11051,22 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="135" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="135" customWidth="1"/>
+    <col min="1" max="1" width="2.81640625" style="135" customWidth="1"/>
+    <col min="2" max="2" width="3.7265625" style="135" customWidth="1"/>
     <col min="3" max="3" width="63" style="135" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="135" customWidth="1"/>
-    <col min="5" max="7" width="10.28515625" style="135" customWidth="1"/>
-    <col min="8" max="8" width="217.28515625" style="135" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="135"/>
+    <col min="4" max="4" width="10.81640625" style="135" customWidth="1"/>
+    <col min="5" max="7" width="10.26953125" style="135" customWidth="1"/>
+    <col min="8" max="8" width="217.26953125" style="135" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="135"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="61"/>
       <c r="B1" s="61"/>
       <c r="C1" s="61"/>
@@ -11045,7 +11077,7 @@
       <c r="H1" s="82"/>
       <c r="I1" s="130"/>
     </row>
-    <row r="2" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A2" s="61"/>
       <c r="B2" s="61"/>
       <c r="C2" s="71" t="s">
@@ -11060,7 +11092,7 @@
       </c>
       <c r="I2" s="130"/>
     </row>
-    <row r="3" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="61"/>
       <c r="B3" s="61"/>
       <c r="C3" s="61"/>
@@ -11070,7 +11102,7 @@
       <c r="G3" s="61"/>
       <c r="H3" s="61"/>
     </row>
-    <row r="4" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="61"/>
       <c r="B4" s="131"/>
       <c r="C4" s="43" t="s">
@@ -11082,7 +11114,7 @@
       <c r="G4" s="61"/>
       <c r="H4" s="61"/>
     </row>
-    <row r="5" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="61"/>
       <c r="B5" s="132"/>
       <c r="C5" s="49" t="s">
@@ -11094,7 +11126,7 @@
       <c r="G5" s="61"/>
       <c r="H5" s="61"/>
     </row>
-    <row r="6" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="61"/>
       <c r="B6" s="133"/>
       <c r="C6" s="49" t="s">
@@ -11106,7 +11138,7 @@
       <c r="G6" s="61"/>
       <c r="H6" s="61"/>
     </row>
-    <row r="7" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="61"/>
       <c r="B7" s="61"/>
       <c r="C7" s="61"/>
@@ -11117,7 +11149,7 @@
       <c r="H7" s="82"/>
       <c r="I7" s="130"/>
     </row>
-    <row r="8" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="61"/>
       <c r="B8" s="61"/>
       <c r="C8" s="61" t="s">
@@ -11130,7 +11162,7 @@
       <c r="H8" s="82"/>
       <c r="I8" s="130"/>
     </row>
-    <row r="9" spans="1:9" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="61"/>
       <c r="B9" s="61"/>
       <c r="C9" s="49"/>
@@ -11141,7 +11173,7 @@
       <c r="H9" s="82"/>
       <c r="I9" s="130"/>
     </row>
-    <row r="10" spans="1:9" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="61"/>
       <c r="B10" s="134"/>
       <c r="C10" s="134"/>
@@ -11152,7 +11184,7 @@
       <c r="H10" s="90"/>
       <c r="I10" s="130"/>
     </row>
-    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="61"/>
       <c r="B11" s="49"/>
       <c r="C11" s="136" t="s">
@@ -11175,7 +11207,7 @@
       </c>
       <c r="I11" s="130"/>
     </row>
-    <row r="12" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="26" x14ac:dyDescent="0.25">
       <c r="A12" s="61"/>
       <c r="B12" s="49"/>
       <c r="C12" s="49" t="s">
@@ -11198,7 +11230,7 @@
       </c>
       <c r="I12" s="130"/>
     </row>
-    <row r="13" spans="1:9" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="61"/>
       <c r="B13" s="49"/>
       <c r="C13" s="49"/>
@@ -11209,7 +11241,7 @@
       <c r="H13" s="82"/>
       <c r="I13" s="130"/>
     </row>
-    <row r="14" spans="1:9" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A14" s="61"/>
       <c r="B14" s="134"/>
       <c r="C14" s="134"/>
@@ -11220,7 +11252,7 @@
       <c r="H14" s="90"/>
       <c r="I14" s="130"/>
     </row>
-    <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="61"/>
       <c r="B15" s="61"/>
       <c r="C15" s="137" t="s">
@@ -11243,7 +11275,7 @@
       </c>
       <c r="I15" s="130"/>
     </row>
-    <row r="16" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="61"/>
       <c r="B16" s="61"/>
       <c r="C16" s="49" t="s">
@@ -11266,7 +11298,7 @@
       </c>
       <c r="I16" s="130"/>
     </row>
-    <row r="17" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="26" x14ac:dyDescent="0.25">
       <c r="A17" s="61"/>
       <c r="B17" s="61"/>
       <c r="C17" s="49" t="s">
@@ -11290,7 +11322,7 @@
       <c r="I17" s="130"/>
       <c r="J17" s="128"/>
     </row>
-    <row r="18" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="61"/>
       <c r="B18" s="61"/>
       <c r="C18" s="49" t="s">
@@ -11314,7 +11346,7 @@
       <c r="I18" s="130"/>
       <c r="J18" s="128"/>
     </row>
-    <row r="19" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="61"/>
       <c r="B19" s="61"/>
       <c r="C19" s="61"/>
@@ -11324,7 +11356,7 @@
       <c r="G19" s="61"/>
       <c r="H19" s="61"/>
     </row>
-    <row r="20" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="61"/>
       <c r="B20" s="61"/>
       <c r="C20" s="49" t="s">
@@ -11348,7 +11380,7 @@
       <c r="I20" s="130"/>
       <c r="J20" s="128"/>
     </row>
-    <row r="21" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="61"/>
       <c r="B21" s="61"/>
       <c r="C21" s="49" t="s">
@@ -11372,7 +11404,7 @@
       <c r="I21" s="130"/>
       <c r="J21" s="128"/>
     </row>
-    <row r="22" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="61"/>
       <c r="B22" s="61"/>
       <c r="C22" s="61"/>
@@ -11382,7 +11414,7 @@
       <c r="G22" s="61"/>
       <c r="H22" s="61"/>
     </row>
-    <row r="23" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="61"/>
       <c r="B23" s="61"/>
       <c r="C23" s="49" t="s">
@@ -11403,7 +11435,7 @@
       </c>
       <c r="I23" s="130"/>
     </row>
-    <row r="24" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="61"/>
       <c r="B24" s="61"/>
       <c r="C24" s="61" t="s">
@@ -11426,7 +11458,7 @@
       </c>
       <c r="I24" s="130"/>
     </row>
-    <row r="25" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="26" x14ac:dyDescent="0.25">
       <c r="A25" s="61"/>
       <c r="B25" s="49"/>
       <c r="C25" s="49" t="s">
@@ -11450,7 +11482,7 @@
       </c>
       <c r="I25" s="130"/>
     </row>
-    <row r="26" spans="1:10" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="61"/>
       <c r="B26" s="49"/>
       <c r="C26" s="49"/>
@@ -11461,7 +11493,7 @@
       <c r="H26" s="82"/>
       <c r="I26" s="130"/>
     </row>
-    <row r="27" spans="1:10" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A27" s="61"/>
       <c r="B27" s="134"/>
       <c r="C27" s="134"/>
@@ -11472,7 +11504,7 @@
       <c r="H27" s="90"/>
       <c r="I27" s="130"/>
     </row>
-    <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A28" s="61"/>
       <c r="B28" s="49"/>
       <c r="C28" s="137" t="s">
@@ -11495,7 +11527,7 @@
       </c>
       <c r="I28" s="130"/>
     </row>
-    <row r="29" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="26" x14ac:dyDescent="0.25">
       <c r="A29" s="61"/>
       <c r="B29" s="61"/>
       <c r="C29" s="72" t="s">
@@ -11508,7 +11540,7 @@
       <c r="H29" s="49"/>
       <c r="I29" s="130"/>
     </row>
-    <row r="30" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="39" x14ac:dyDescent="0.25">
       <c r="A30" s="61"/>
       <c r="B30" s="49"/>
       <c r="C30" s="49" t="s">
@@ -11531,7 +11563,7 @@
       </c>
       <c r="I30" s="130"/>
     </row>
-    <row r="31" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="61"/>
       <c r="B31" s="49"/>
       <c r="C31" s="49" t="s">
@@ -11554,7 +11586,7 @@
       </c>
       <c r="I31" s="130"/>
     </row>
-    <row r="32" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="26" x14ac:dyDescent="0.25">
       <c r="A32" s="61"/>
       <c r="B32" s="49"/>
       <c r="C32" s="49" t="s">
@@ -11577,7 +11609,7 @@
       </c>
       <c r="I32" s="130"/>
     </row>
-    <row r="33" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="61"/>
       <c r="B33" s="49"/>
       <c r="C33" s="49" t="s">
@@ -11600,7 +11632,7 @@
       </c>
       <c r="I33" s="130"/>
     </row>
-    <row r="34" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="61"/>
       <c r="B34" s="49"/>
       <c r="C34" s="49" t="s">
@@ -11623,7 +11655,7 @@
       </c>
       <c r="I34" s="130"/>
     </row>
-    <row r="35" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="61"/>
       <c r="B35" s="49"/>
       <c r="C35" s="49" t="s">
@@ -11644,7 +11676,7 @@
       <c r="H35" s="72"/>
       <c r="I35" s="130"/>
     </row>
-    <row r="36" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="61"/>
       <c r="B36" s="49"/>
       <c r="C36" s="49" t="s">
@@ -11667,7 +11699,7 @@
       </c>
       <c r="I36" s="130"/>
     </row>
-    <row r="37" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="61"/>
       <c r="B37" s="49"/>
       <c r="C37" s="49" t="s">
@@ -11690,7 +11722,7 @@
       </c>
       <c r="I37" s="130"/>
     </row>
-    <row r="38" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="61"/>
       <c r="B38" s="61"/>
       <c r="C38" s="138" t="s">
@@ -11713,7 +11745,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="61"/>
       <c r="B39" s="61"/>
       <c r="C39" s="138"/>
@@ -11723,7 +11755,7 @@
       <c r="G39" s="61"/>
       <c r="H39" s="140"/>
     </row>
-    <row r="40" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="26" x14ac:dyDescent="0.25">
       <c r="A40" s="61"/>
       <c r="B40" s="49"/>
       <c r="C40" s="72" t="s">
@@ -11736,7 +11768,7 @@
       <c r="H40" s="83"/>
       <c r="I40" s="130"/>
     </row>
-    <row r="41" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="61"/>
       <c r="B41" s="49"/>
       <c r="C41" s="49" t="s">
@@ -11759,7 +11791,7 @@
       </c>
       <c r="I41" s="130"/>
     </row>
-    <row r="42" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="61"/>
       <c r="B42" s="49"/>
       <c r="C42" s="49" t="s">
@@ -11782,7 +11814,7 @@
       </c>
       <c r="I42" s="130"/>
     </row>
-    <row r="43" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="61"/>
       <c r="B43" s="61"/>
       <c r="C43" s="49" t="s">
@@ -11805,7 +11837,7 @@
       </c>
       <c r="I43" s="130"/>
     </row>
-    <row r="44" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="61"/>
       <c r="B44" s="61"/>
       <c r="C44" s="49" t="s">
@@ -11828,7 +11860,7 @@
       </c>
       <c r="I44" s="130"/>
     </row>
-    <row r="45" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="61"/>
       <c r="B45" s="61"/>
       <c r="C45" s="49" t="s">
@@ -11852,7 +11884,7 @@
       </c>
       <c r="I45" s="130"/>
     </row>
-    <row r="46" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="61"/>
       <c r="B46" s="61"/>
       <c r="C46" s="106" t="s">
@@ -11876,7 +11908,7 @@
       </c>
       <c r="I46" s="130"/>
     </row>
-    <row r="47" spans="1:9" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="61"/>
       <c r="B47" s="49"/>
       <c r="C47" s="49"/>
@@ -11887,7 +11919,7 @@
       <c r="H47" s="82"/>
       <c r="I47" s="130"/>
     </row>
-    <row r="48" spans="1:9" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A48" s="61"/>
       <c r="B48" s="134"/>
       <c r="C48" s="134"/>
@@ -11898,7 +11930,7 @@
       <c r="H48" s="90"/>
       <c r="I48" s="130"/>
     </row>
-    <row r="49" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="61"/>
       <c r="B49" s="61"/>
       <c r="C49" s="137" t="s">
@@ -11921,7 +11953,7 @@
       </c>
       <c r="I49" s="130"/>
     </row>
-    <row r="50" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="61"/>
       <c r="B50" s="61"/>
       <c r="C50" s="49" t="s">
@@ -11944,7 +11976,7 @@
       </c>
       <c r="I50" s="130"/>
     </row>
-    <row r="51" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="61"/>
       <c r="B51" s="61"/>
       <c r="C51" s="49" t="s">
@@ -11967,7 +11999,7 @@
       </c>
       <c r="I51" s="130"/>
     </row>
-    <row r="52" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="61"/>
       <c r="B52" s="49"/>
       <c r="C52" s="49" t="s">
@@ -11989,7 +12021,7 @@
       <c r="H52" s="82"/>
       <c r="I52" s="130"/>
     </row>
-    <row r="53" spans="1:9" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="61"/>
       <c r="B53" s="49"/>
       <c r="C53" s="49"/>
@@ -12000,7 +12032,7 @@
       <c r="H53" s="82"/>
       <c r="I53" s="130"/>
     </row>
-    <row r="54" spans="1:9" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A54" s="61"/>
       <c r="B54" s="134"/>
       <c r="C54" s="134"/>
@@ -12011,7 +12043,7 @@
       <c r="H54" s="90"/>
       <c r="I54" s="130"/>
     </row>
-    <row r="55" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="61"/>
       <c r="B55" s="49"/>
       <c r="C55" s="136" t="s">
@@ -12034,7 +12066,7 @@
       </c>
       <c r="I55" s="130"/>
     </row>
-    <row r="56" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="61"/>
       <c r="B56" s="49"/>
       <c r="C56" s="49" t="s">
@@ -12057,7 +12089,7 @@
       </c>
       <c r="I56" s="130"/>
     </row>
-    <row r="57" spans="1:9" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="61"/>
       <c r="B57" s="49"/>
       <c r="C57" s="49"/>
@@ -12068,7 +12100,7 @@
       <c r="H57" s="82"/>
       <c r="I57" s="130"/>
     </row>
-    <row r="58" spans="1:9" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A58" s="61"/>
       <c r="B58" s="134"/>
       <c r="C58" s="134"/>
@@ -12079,7 +12111,7 @@
       <c r="H58" s="90"/>
       <c r="I58" s="130"/>
     </row>
-    <row r="59" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A59" s="61"/>
       <c r="B59" s="49"/>
       <c r="C59" s="136" t="s">
@@ -12102,7 +12134,7 @@
       </c>
       <c r="I59" s="130"/>
     </row>
-    <row r="60" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" ht="25" x14ac:dyDescent="0.25">
       <c r="A60" s="61"/>
       <c r="B60" s="49"/>
       <c r="C60" s="49" t="s">
@@ -12125,7 +12157,7 @@
       </c>
       <c r="I60" s="130"/>
     </row>
-    <row r="61" spans="1:9" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="61"/>
       <c r="B61" s="49"/>
       <c r="C61" s="49"/>
@@ -12136,7 +12168,7 @@
       <c r="H61" s="82"/>
       <c r="I61" s="130"/>
     </row>
-    <row r="62" spans="1:9" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A62" s="61"/>
       <c r="B62" s="134"/>
       <c r="C62" s="134"/>
@@ -12147,7 +12179,7 @@
       <c r="H62" s="90"/>
       <c r="I62" s="130"/>
     </row>
-    <row r="63" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A63" s="61"/>
       <c r="B63" s="49"/>
       <c r="C63" s="137" t="s">
@@ -12170,7 +12202,7 @@
       </c>
       <c r="I63" s="130"/>
     </row>
-    <row r="64" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="61"/>
       <c r="B64" s="49"/>
       <c r="C64" s="49" t="s">
@@ -12193,7 +12225,7 @@
       </c>
       <c r="I64" s="130"/>
     </row>
-    <row r="65" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="61"/>
       <c r="B65" s="49"/>
       <c r="C65" s="49" t="s">
@@ -12216,7 +12248,7 @@
       </c>
       <c r="I65" s="130"/>
     </row>
-    <row r="66" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" ht="26" x14ac:dyDescent="0.25">
       <c r="A66" s="61"/>
       <c r="B66" s="49"/>
       <c r="C66" s="49" t="s">
@@ -12226,7 +12258,7 @@
         <v>18000</v>
       </c>
       <c r="E66" s="51" t="s">
-        <v>37</v>
+        <v>289</v>
       </c>
       <c r="F66" s="51">
         <v>0</v>
@@ -12239,7 +12271,7 @@
       </c>
       <c r="I66" s="130"/>
     </row>
-    <row r="67" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="61"/>
       <c r="B67" s="61"/>
       <c r="C67" s="61"/>
@@ -12285,86 +12317,88 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:AT111"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.26953125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7265625" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.26953125" style="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7265625" style="15" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" style="15" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.7109375" style="3" customWidth="1"/>
-    <col min="21" max="21" width="50.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.54296875" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.54296875" style="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.453125" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.1796875" style="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.453125" style="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.1796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.1796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7265625" style="3" customWidth="1"/>
+    <col min="21" max="21" width="50.54296875" style="3" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="29" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="66.28515625" style="3" customWidth="1"/>
-    <col min="29" max="29" width="16.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="32.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="21.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="21.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="17.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="66.26953125" style="3" customWidth="1"/>
+    <col min="29" max="29" width="16.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="32.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="21.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="21.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="16384" width="9.28515625" style="1"/>
+    <col min="40" max="40" width="8.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="14.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="16384" width="9.26953125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="180" t="s">
         <v>58</v>
       </c>
       <c r="C1" s="180"/>
-      <c r="D1" s="181" t="s">
+      <c r="D1" s="182" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="181"/>
-      <c r="F1" s="181"/>
-      <c r="G1" s="181"/>
-      <c r="H1" s="182" t="s">
+      <c r="E1" s="182"/>
+      <c r="F1" s="182"/>
+      <c r="G1" s="182"/>
+      <c r="H1" s="181" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="182"/>
-      <c r="J1" s="182"/>
-      <c r="K1" s="182"/>
-      <c r="L1" s="182"/>
-      <c r="M1" s="182"/>
-      <c r="N1" s="183" t="s">
+      <c r="I1" s="181"/>
+      <c r="J1" s="181"/>
+      <c r="K1" s="181"/>
+      <c r="L1" s="181"/>
+      <c r="M1" s="181"/>
+      <c r="N1" s="179" t="s">
         <v>61</v>
       </c>
-      <c r="O1" s="183"/>
-      <c r="P1" s="183"/>
-      <c r="Q1" s="183"/>
-      <c r="R1" s="183"/>
-      <c r="S1" s="183"/>
+      <c r="O1" s="179"/>
+      <c r="P1" s="179"/>
+      <c r="Q1" s="179"/>
+      <c r="R1" s="179"/>
+      <c r="S1" s="179"/>
       <c r="AB1" s="9"/>
       <c r="AJ1" s="1"/>
     </row>
-    <row r="2" spans="1:36" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25"/>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -12384,18 +12418,18 @@
       <c r="K2" s="26"/>
       <c r="L2" s="26"/>
       <c r="M2" s="26"/>
-      <c r="N2" s="178" t="s">
+      <c r="N2" s="183" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="178"/>
-      <c r="P2" s="179" t="s">
+      <c r="O2" s="183"/>
+      <c r="P2" s="178" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="179"/>
-      <c r="R2" s="179" t="s">
+      <c r="Q2" s="178"/>
+      <c r="R2" s="178" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="179"/>
+      <c r="S2" s="178"/>
       <c r="AB2" s="18"/>
       <c r="AC2" s="18"/>
       <c r="AD2" s="18"/>
@@ -12405,7 +12439,7 @@
       <c r="AH2" s="18"/>
       <c r="AI2" s="18"/>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" ht="13" x14ac:dyDescent="0.25">
       <c r="A3" s="152" t="s">
         <v>18</v>
       </c>
@@ -12466,7 +12500,7 @@
       <c r="AB3" s="9"/>
       <c r="AJ3" s="1"/>
     </row>
-    <row r="4" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29">
         <v>0</v>
       </c>
@@ -12532,7 +12566,7 @@
       <c r="AH4" s="8"/>
       <c r="AI4" s="8"/>
     </row>
-    <row r="5" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29">
         <v>1</v>
       </c>
@@ -12625,7 +12659,7 @@
       <c r="AH5" s="8"/>
       <c r="AI5" s="8"/>
     </row>
-    <row r="6" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29">
         <v>2</v>
       </c>
@@ -12718,7 +12752,7 @@
       <c r="AH6" s="8"/>
       <c r="AI6" s="8"/>
     </row>
-    <row r="7" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29">
         <v>3</v>
       </c>
@@ -12811,7 +12845,7 @@
       <c r="AH7" s="8"/>
       <c r="AI7" s="8"/>
     </row>
-    <row r="8" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29">
         <v>4</v>
       </c>
@@ -12904,7 +12938,7 @@
       <c r="AH8" s="8"/>
       <c r="AI8" s="8"/>
     </row>
-    <row r="9" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29">
         <v>5</v>
       </c>
@@ -12997,7 +13031,7 @@
       <c r="AH9" s="8"/>
       <c r="AI9" s="8"/>
     </row>
-    <row r="10" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29">
         <v>6</v>
       </c>
@@ -13090,7 +13124,7 @@
       <c r="AH10" s="8"/>
       <c r="AI10" s="8"/>
     </row>
-    <row r="11" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29">
         <v>7</v>
       </c>
@@ -13183,7 +13217,7 @@
       <c r="AH11" s="8"/>
       <c r="AI11" s="8"/>
     </row>
-    <row r="12" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29">
         <v>8</v>
       </c>
@@ -13276,7 +13310,7 @@
       <c r="AH12" s="8"/>
       <c r="AI12" s="8"/>
     </row>
-    <row r="13" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29">
         <v>9</v>
       </c>
@@ -13369,7 +13403,7 @@
       <c r="AH13" s="8"/>
       <c r="AI13" s="8"/>
     </row>
-    <row r="14" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29">
         <v>10</v>
       </c>
@@ -13462,7 +13496,7 @@
       <c r="AH14" s="8"/>
       <c r="AI14" s="8"/>
     </row>
-    <row r="15" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29">
         <v>11</v>
       </c>
@@ -13555,7 +13589,7 @@
       <c r="AH15" s="8"/>
       <c r="AI15" s="8"/>
     </row>
-    <row r="16" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29">
         <v>12</v>
       </c>
@@ -13648,7 +13682,7 @@
       <c r="AH16" s="8"/>
       <c r="AI16" s="8"/>
     </row>
-    <row r="17" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29">
         <v>13</v>
       </c>
@@ -13741,7 +13775,7 @@
       <c r="AH17" s="8"/>
       <c r="AI17" s="8"/>
     </row>
-    <row r="18" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="29">
         <v>14</v>
       </c>
@@ -13834,7 +13868,7 @@
       <c r="AH18" s="8"/>
       <c r="AI18" s="8"/>
     </row>
-    <row r="19" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29">
         <v>15</v>
       </c>
@@ -13927,7 +13961,7 @@
       <c r="AH19" s="8"/>
       <c r="AI19" s="8"/>
     </row>
-    <row r="20" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="29">
         <v>16</v>
       </c>
@@ -14020,7 +14054,7 @@
       <c r="AH20" s="8"/>
       <c r="AI20" s="8"/>
     </row>
-    <row r="21" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="29">
         <v>17</v>
       </c>
@@ -14113,7 +14147,7 @@
       <c r="AH21" s="8"/>
       <c r="AI21" s="8"/>
     </row>
-    <row r="22" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="29">
         <v>18</v>
       </c>
@@ -14206,7 +14240,7 @@
       <c r="AH22" s="8"/>
       <c r="AI22" s="8"/>
     </row>
-    <row r="23" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29">
         <v>19</v>
       </c>
@@ -14299,7 +14333,7 @@
       <c r="AH23" s="8"/>
       <c r="AI23" s="8"/>
     </row>
-    <row r="24" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29">
         <v>20</v>
       </c>
@@ -14392,7 +14426,7 @@
       <c r="AH24" s="8"/>
       <c r="AI24" s="8"/>
     </row>
-    <row r="25" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="29">
         <v>21</v>
       </c>
@@ -14485,7 +14519,7 @@
       <c r="AH25" s="8"/>
       <c r="AI25" s="8"/>
     </row>
-    <row r="26" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="29">
         <v>22</v>
       </c>
@@ -14578,7 +14612,7 @@
       <c r="AH26" s="8"/>
       <c r="AI26" s="8"/>
     </row>
-    <row r="27" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="29">
         <v>23</v>
       </c>
@@ -14671,7 +14705,7 @@
       <c r="AH27" s="8"/>
       <c r="AI27" s="8"/>
     </row>
-    <row r="28" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="29">
         <v>24</v>
       </c>
@@ -14764,7 +14798,7 @@
       <c r="AH28" s="8"/>
       <c r="AI28" s="8"/>
     </row>
-    <row r="29" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="29">
         <v>25</v>
       </c>
@@ -14857,7 +14891,7 @@
       <c r="AH29" s="8"/>
       <c r="AI29" s="8"/>
     </row>
-    <row r="30" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="29">
         <v>26</v>
       </c>
@@ -14959,7 +14993,7 @@
       <c r="AQ30" s="17"/>
       <c r="AR30" s="17"/>
     </row>
-    <row r="31" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="29">
         <v>27</v>
       </c>
@@ -15061,7 +15095,7 @@
       <c r="AQ31" s="17"/>
       <c r="AR31" s="17"/>
     </row>
-    <row r="32" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="29">
         <v>28</v>
       </c>
@@ -15163,7 +15197,7 @@
       <c r="AQ32" s="17"/>
       <c r="AR32" s="17"/>
     </row>
-    <row r="33" spans="1:44" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:44" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="29">
         <v>29</v>
       </c>
@@ -15243,7 +15277,7 @@
       <c r="AL33" s="19"/>
       <c r="AM33" s="19"/>
     </row>
-    <row r="34" spans="1:44" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:44" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="29">
         <v>30</v>
       </c>
@@ -15323,7 +15357,7 @@
       <c r="AL34" s="19"/>
       <c r="AM34" s="19"/>
     </row>
-    <row r="35" spans="1:44" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:44" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="29">
         <v>31</v>
       </c>
@@ -15403,7 +15437,7 @@
       <c r="AL35" s="19"/>
       <c r="AM35" s="19"/>
     </row>
-    <row r="36" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="29">
         <v>32</v>
       </c>
@@ -15505,7 +15539,7 @@
       <c r="AQ36" s="17"/>
       <c r="AR36" s="17"/>
     </row>
-    <row r="37" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="29">
         <v>33</v>
       </c>
@@ -15598,7 +15632,7 @@
       <c r="AH37" s="8"/>
       <c r="AI37" s="8"/>
     </row>
-    <row r="38" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="29">
         <v>34</v>
       </c>
@@ -15684,7 +15718,7 @@
       <c r="AA38" s="17"/>
       <c r="AB38" s="17"/>
     </row>
-    <row r="39" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="29">
         <v>35</v>
       </c>
@@ -15770,7 +15804,7 @@
       <c r="AA39" s="17"/>
       <c r="AB39" s="17"/>
     </row>
-    <row r="40" spans="1:44" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:44" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="29">
         <v>36</v>
       </c>
@@ -15856,7 +15890,7 @@
       <c r="AA40" s="20"/>
       <c r="AB40" s="20"/>
     </row>
-    <row r="41" spans="1:44" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:44" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="29">
         <v>37</v>
       </c>
@@ -15942,7 +15976,7 @@
       <c r="AA41" s="20"/>
       <c r="AB41" s="20"/>
     </row>
-    <row r="42" spans="1:44" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:44" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="29">
         <v>38</v>
       </c>
@@ -16028,7 +16062,7 @@
       <c r="AA42" s="20"/>
       <c r="AB42" s="20"/>
     </row>
-    <row r="43" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="29">
         <v>39</v>
       </c>
@@ -16114,7 +16148,7 @@
       <c r="AA43" s="17"/>
       <c r="AB43" s="17"/>
     </row>
-    <row r="44" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="29">
         <v>40</v>
       </c>
@@ -16200,7 +16234,7 @@
       <c r="AA44" s="17"/>
       <c r="AB44" s="17"/>
     </row>
-    <row r="45" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="29">
         <v>41</v>
       </c>
@@ -16286,7 +16320,7 @@
       <c r="AA45" s="17"/>
       <c r="AB45" s="17"/>
     </row>
-    <row r="46" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="29">
         <v>42</v>
       </c>
@@ -16372,7 +16406,7 @@
       <c r="AA46" s="17"/>
       <c r="AB46" s="17"/>
     </row>
-    <row r="47" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="29">
         <v>43</v>
       </c>
@@ -16458,7 +16492,7 @@
       <c r="AA47" s="17"/>
       <c r="AB47" s="17"/>
     </row>
-    <row r="48" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="29">
         <v>44</v>
       </c>
@@ -16544,7 +16578,7 @@
       <c r="AA48" s="17"/>
       <c r="AB48" s="17"/>
     </row>
-    <row r="49" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="29">
         <v>45</v>
       </c>
@@ -16630,7 +16664,7 @@
       <c r="AA49" s="17"/>
       <c r="AB49" s="17"/>
     </row>
-    <row r="50" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="29">
         <v>46</v>
       </c>
@@ -16716,7 +16750,7 @@
       <c r="AA50" s="17"/>
       <c r="AB50" s="17"/>
     </row>
-    <row r="51" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="29">
         <v>47</v>
       </c>
@@ -16811,7 +16845,7 @@
       <c r="AQ51" s="17"/>
       <c r="AR51" s="17"/>
     </row>
-    <row r="52" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="29">
         <v>48</v>
       </c>
@@ -16906,7 +16940,7 @@
       <c r="AQ52" s="17"/>
       <c r="AR52" s="17"/>
     </row>
-    <row r="53" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="29">
         <v>49</v>
       </c>
@@ -17001,7 +17035,7 @@
       <c r="AQ53" s="17"/>
       <c r="AR53" s="17"/>
     </row>
-    <row r="54" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="29">
         <v>50</v>
       </c>
@@ -17096,7 +17130,7 @@
       <c r="AQ54" s="17"/>
       <c r="AR54" s="17"/>
     </row>
-    <row r="55" spans="1:44" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:44" s="38" customFormat="1" ht="13" x14ac:dyDescent="0.25">
       <c r="A55" s="34" t="s">
         <v>43</v>
       </c>
@@ -17182,7 +17216,7 @@
       <c r="AQ55" s="37"/>
       <c r="AR55" s="37"/>
     </row>
-    <row r="56" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
       <c r="D56" s="22"/>
@@ -17218,34 +17252,34 @@
       <c r="AQ56" s="3"/>
       <c r="AR56" s="3"/>
     </row>
-    <row r="57" spans="1:44" ht="18" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:44" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="10"/>
       <c r="B57" s="180" t="s">
         <v>58</v>
       </c>
       <c r="C57" s="180"/>
-      <c r="D57" s="181" t="s">
+      <c r="D57" s="182" t="s">
         <v>266</v>
       </c>
-      <c r="E57" s="181"/>
-      <c r="F57" s="181"/>
-      <c r="G57" s="181"/>
-      <c r="H57" s="182" t="s">
+      <c r="E57" s="182"/>
+      <c r="F57" s="182"/>
+      <c r="G57" s="182"/>
+      <c r="H57" s="181" t="s">
         <v>267</v>
       </c>
-      <c r="I57" s="182"/>
-      <c r="J57" s="182"/>
-      <c r="K57" s="182"/>
-      <c r="L57" s="182"/>
-      <c r="M57" s="182"/>
-      <c r="N57" s="183" t="s">
+      <c r="I57" s="181"/>
+      <c r="J57" s="181"/>
+      <c r="K57" s="181"/>
+      <c r="L57" s="181"/>
+      <c r="M57" s="181"/>
+      <c r="N57" s="179" t="s">
         <v>268</v>
       </c>
-      <c r="O57" s="183"/>
-      <c r="P57" s="183"/>
-      <c r="Q57" s="183"/>
-      <c r="R57" s="183"/>
-      <c r="S57" s="183"/>
+      <c r="O57" s="179"/>
+      <c r="P57" s="179"/>
+      <c r="Q57" s="179"/>
+      <c r="R57" s="179"/>
+      <c r="S57" s="179"/>
       <c r="AC57" s="1"/>
       <c r="AD57" s="1"/>
       <c r="AE57" s="1"/>
@@ -17259,7 +17293,7 @@
       <c r="AM57" s="5"/>
       <c r="AN57" s="3"/>
     </row>
-    <row r="58" spans="1:44" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:44" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A58" s="25"/>
       <c r="B58" s="26"/>
       <c r="C58" s="14"/>
@@ -17279,18 +17313,18 @@
       <c r="K58" s="26"/>
       <c r="L58" s="26"/>
       <c r="M58" s="26"/>
-      <c r="N58" s="178" t="s">
+      <c r="N58" s="183" t="s">
         <v>53</v>
       </c>
-      <c r="O58" s="178"/>
-      <c r="P58" s="179" t="s">
+      <c r="O58" s="183"/>
+      <c r="P58" s="178" t="s">
         <v>17</v>
       </c>
-      <c r="Q58" s="179"/>
-      <c r="R58" s="179" t="s">
+      <c r="Q58" s="178"/>
+      <c r="R58" s="178" t="s">
         <v>11</v>
       </c>
-      <c r="S58" s="179"/>
+      <c r="S58" s="178"/>
       <c r="AC58" s="1"/>
       <c r="AD58" s="1"/>
       <c r="AE58" s="1"/>
@@ -17308,7 +17342,7 @@
       <c r="AQ58" s="3"/>
       <c r="AR58" s="3"/>
     </row>
-    <row r="59" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:44" ht="13" x14ac:dyDescent="0.25">
       <c r="A59" s="152" t="s">
         <v>18</v>
       </c>
@@ -17377,7 +17411,7 @@
       <c r="AM59" s="5"/>
       <c r="AN59" s="3"/>
     </row>
-    <row r="60" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A60" s="29">
         <v>0</v>
       </c>
@@ -17435,7 +17469,7 @@
       <c r="AI60" s="1"/>
       <c r="AJ60" s="1"/>
     </row>
-    <row r="61" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A61" s="29">
         <v>1</v>
       </c>
@@ -17517,7 +17551,7 @@
       <c r="AI61" s="1"/>
       <c r="AJ61" s="1"/>
     </row>
-    <row r="62" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A62" s="29">
         <v>2</v>
       </c>
@@ -17607,7 +17641,7 @@
       <c r="AQ62" s="3"/>
       <c r="AR62" s="3"/>
     </row>
-    <row r="63" spans="1:44" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="29">
         <v>3</v>
       </c>
@@ -17681,7 +17715,7 @@
         <v>-466592.17211447493</v>
       </c>
     </row>
-    <row r="64" spans="1:44" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="29">
         <v>4</v>
       </c>
@@ -17755,7 +17789,7 @@
         <v>-359495.67059813149</v>
       </c>
     </row>
-    <row r="65" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A65" s="29">
         <v>5</v>
       </c>
@@ -17841,7 +17875,7 @@
       <c r="AM65" s="5"/>
       <c r="AN65" s="3"/>
     </row>
-    <row r="66" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A66" s="29">
         <v>6</v>
       </c>
@@ -17927,7 +17961,7 @@
       <c r="AM66" s="5"/>
       <c r="AN66" s="3"/>
     </row>
-    <row r="67" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A67" s="29">
         <v>7</v>
       </c>
@@ -18026,7 +18060,7 @@
       <c r="AS67" s="8"/>
       <c r="AT67" s="8"/>
     </row>
-    <row r="68" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A68" s="29">
         <v>8</v>
       </c>
@@ -18125,7 +18159,7 @@
       <c r="AS68" s="8"/>
       <c r="AT68" s="8"/>
     </row>
-    <row r="69" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A69" s="29">
         <v>9</v>
       </c>
@@ -18224,7 +18258,7 @@
       <c r="AS69" s="8"/>
       <c r="AT69" s="8"/>
     </row>
-    <row r="70" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A70" s="29">
         <v>10</v>
       </c>
@@ -18323,7 +18357,7 @@
       <c r="AS70" s="8"/>
       <c r="AT70" s="8"/>
     </row>
-    <row r="71" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A71" s="29">
         <v>11</v>
       </c>
@@ -18422,7 +18456,7 @@
       <c r="AS71" s="8"/>
       <c r="AT71" s="8"/>
     </row>
-    <row r="72" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A72" s="29">
         <v>12</v>
       </c>
@@ -18521,7 +18555,7 @@
       <c r="AS72" s="8"/>
       <c r="AT72" s="8"/>
     </row>
-    <row r="73" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A73" s="29">
         <v>13</v>
       </c>
@@ -18620,7 +18654,7 @@
       <c r="AS73" s="8"/>
       <c r="AT73" s="8"/>
     </row>
-    <row r="74" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A74" s="29">
         <v>14</v>
       </c>
@@ -18719,7 +18753,7 @@
       <c r="AS74" s="8"/>
       <c r="AT74" s="8"/>
     </row>
-    <row r="75" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A75" s="29">
         <v>15</v>
       </c>
@@ -18818,7 +18852,7 @@
       <c r="AS75" s="8"/>
       <c r="AT75" s="8"/>
     </row>
-    <row r="76" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A76" s="29">
         <v>16</v>
       </c>
@@ -18917,7 +18951,7 @@
       <c r="AS76" s="8"/>
       <c r="AT76" s="8"/>
     </row>
-    <row r="77" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A77" s="29">
         <v>17</v>
       </c>
@@ -19016,7 +19050,7 @@
       <c r="AS77" s="8"/>
       <c r="AT77" s="8"/>
     </row>
-    <row r="78" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A78" s="29">
         <v>18</v>
       </c>
@@ -19115,7 +19149,7 @@
       <c r="AS78" s="8"/>
       <c r="AT78" s="8"/>
     </row>
-    <row r="79" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A79" s="29">
         <v>19</v>
       </c>
@@ -19214,7 +19248,7 @@
       <c r="AS79" s="8"/>
       <c r="AT79" s="8"/>
     </row>
-    <row r="80" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A80" s="29">
         <v>20</v>
       </c>
@@ -19313,7 +19347,7 @@
       <c r="AS80" s="8"/>
       <c r="AT80" s="8"/>
     </row>
-    <row r="81" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A81" s="29">
         <v>21</v>
       </c>
@@ -19412,7 +19446,7 @@
       <c r="AS81" s="8"/>
       <c r="AT81" s="8"/>
     </row>
-    <row r="82" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A82" s="29">
         <v>22</v>
       </c>
@@ -19511,7 +19545,7 @@
       <c r="AS82" s="8"/>
       <c r="AT82" s="8"/>
     </row>
-    <row r="83" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A83" s="29">
         <v>23</v>
       </c>
@@ -19610,7 +19644,7 @@
       <c r="AS83" s="8"/>
       <c r="AT83" s="8"/>
     </row>
-    <row r="84" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A84" s="29">
         <v>24</v>
       </c>
@@ -19709,7 +19743,7 @@
       <c r="AS84" s="8"/>
       <c r="AT84" s="8"/>
     </row>
-    <row r="85" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A85" s="29">
         <v>25</v>
       </c>
@@ -19782,7 +19816,7 @@
         <v>1436213.5795124769</v>
       </c>
     </row>
-    <row r="86" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A86" s="29">
         <v>26</v>
       </c>
@@ -19855,7 +19889,7 @@
         <v>1513810.9625886055</v>
       </c>
     </row>
-    <row r="87" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A87" s="29">
         <v>27</v>
       </c>
@@ -19928,7 +19962,7 @@
         <v>1591145.5535155055</v>
       </c>
     </row>
-    <row r="88" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A88" s="29">
         <v>28</v>
       </c>
@@ -20001,7 +20035,7 @@
         <v>1668218.140669625</v>
       </c>
     </row>
-    <row r="89" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A89" s="29">
         <v>29</v>
       </c>
@@ -20074,7 +20108,7 @@
         <v>1745029.510062282</v>
       </c>
     </row>
-    <row r="90" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A90" s="29">
         <v>30</v>
       </c>
@@ -20147,7 +20181,7 @@
         <v>1821580.445346761</v>
       </c>
     </row>
-    <row r="91" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A91" s="29">
         <v>31</v>
       </c>
@@ -20220,7 +20254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A92" s="29">
         <v>32</v>
       </c>
@@ -20293,7 +20327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A93" s="29">
         <v>33</v>
       </c>
@@ -20366,7 +20400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A94" s="29">
         <v>34</v>
       </c>
@@ -20439,7 +20473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A95" s="29">
         <v>35</v>
       </c>
@@ -20512,7 +20546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A96" s="29">
         <v>36</v>
       </c>
@@ -20585,7 +20619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A97" s="29">
         <v>37</v>
       </c>
@@ -20658,7 +20692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A98" s="29">
         <v>38</v>
       </c>
@@ -20731,7 +20765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A99" s="29">
         <v>39</v>
       </c>
@@ -20804,7 +20838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A100" s="29">
         <v>40</v>
       </c>
@@ -20877,7 +20911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A101" s="29">
         <v>41</v>
       </c>
@@ -20950,7 +20984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A102" s="29">
         <v>42</v>
       </c>
@@ -21023,7 +21057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A103" s="29">
         <v>43</v>
       </c>
@@ -21096,7 +21130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A104" s="29">
         <v>44</v>
       </c>
@@ -21169,7 +21203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A105" s="29">
         <v>45</v>
       </c>
@@ -21242,7 +21276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A106" s="29">
         <v>46</v>
       </c>
@@ -21315,7 +21349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A107" s="29">
         <v>47</v>
       </c>
@@ -21388,7 +21422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A108" s="29">
         <v>48</v>
       </c>
@@ -21461,7 +21495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A109" s="29">
         <v>49</v>
       </c>
@@ -21534,7 +21568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A110" s="29">
         <v>50</v>
       </c>
@@ -21607,7 +21641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:36" s="175" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:36" s="175" customFormat="1" ht="13" x14ac:dyDescent="0.25">
       <c r="A111" s="176" t="s">
         <v>43</v>
       </c>
@@ -21691,6 +21725,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="R58:S58"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="H57:M57"/>
+    <mergeCell ref="N57:S57"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="N1:S1"/>
     <mergeCell ref="B1:C1"/>
@@ -21698,13 +21739,6 @@
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="N58:O58"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="R58:S58"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:G57"/>
-    <mergeCell ref="H57:M57"/>
-    <mergeCell ref="N57:S57"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -21722,9 +21756,11 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -21750,39 +21786,39 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.81640625" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="151" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="151"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="103" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="151"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="103" t="s">
         <v>220</v>
       </c>
@@ -21793,7 +21829,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>123</v>
       </c>
@@ -21807,7 +21843,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -21821,7 +21857,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -21835,7 +21871,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -21846,7 +21882,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -21860,7 +21896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>94</v>
       </c>
@@ -21871,7 +21907,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>218</v>
       </c>
@@ -21885,7 +21921,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="130" t="s">
         <v>142</v>
       </c>
@@ -21899,7 +21935,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>140</v>
       </c>
@@ -21913,7 +21949,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="130" t="s">
         <v>146</v>
       </c>
@@ -21927,7 +21963,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>97</v>
       </c>
@@ -21941,7 +21977,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -21952,7 +21988,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="130" t="s">
         <v>30</v>
       </c>
@@ -21966,7 +22002,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -21980,7 +22016,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="130" t="s">
         <v>40</v>
       </c>
@@ -21994,7 +22030,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="130" t="s">
         <v>41</v>
       </c>
@@ -22008,7 +22044,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -22020,7 +22056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="130" t="s">
         <v>13</v>
       </c>
@@ -22031,7 +22067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="130" t="s">
         <v>27</v>
       </c>
@@ -22045,7 +22081,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="130" t="s">
         <v>104</v>
       </c>
@@ -22059,15 +22095,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="130"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A32" s="103" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="130" t="s">
         <v>150</v>
       </c>
@@ -22078,7 +22114,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="130" t="s">
         <v>147</v>
       </c>
@@ -22089,7 +22125,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="130" t="s">
         <v>36</v>
       </c>
@@ -22100,7 +22136,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="130" t="s">
         <v>42</v>
       </c>
@@ -22111,7 +22147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="130" t="s">
         <v>50</v>
       </c>
@@ -22122,7 +22158,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="130" t="s">
         <v>128</v>
       </c>
@@ -22133,7 +22169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="130" t="s">
         <v>127</v>
       </c>
@@ -22144,7 +22180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="130" t="s">
         <v>9</v>
       </c>
@@ -22155,7 +22191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="130" t="s">
         <v>130</v>
       </c>
@@ -22166,7 +22202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="130" t="s">
         <v>129</v>
       </c>
@@ -22177,7 +22213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="130" t="s">
         <v>131</v>
       </c>
@@ -22188,7 +22224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="130" t="s">
         <v>132</v>
       </c>
@@ -22199,7 +22235,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" ht="13" x14ac:dyDescent="0.25">
       <c r="A47" s="167"/>
     </row>
   </sheetData>
@@ -22218,16 +22254,16 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.26953125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="1"/>
-    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="79.140625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="9.26953125" style="1"/>
+    <col min="2" max="2" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="79.1796875" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.26953125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.25">
       <c r="A1" s="76" t="s">
         <v>54</v>
       </c>
@@ -22241,7 +22277,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>55</v>
       </c>
@@ -22255,7 +22291,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="23"/>
       <c r="B3" s="78">
         <v>42473</v>
@@ -22267,7 +22303,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A4" s="23"/>
       <c r="B4" s="78">
         <v>42474</v>
@@ -22279,7 +22315,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="23"/>
       <c r="B5" s="78">
         <v>42475</v>
@@ -22291,7 +22327,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>105</v>
       </c>
@@ -22305,7 +22341,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="23"/>
       <c r="B7" s="78">
         <v>42480</v>
@@ -22317,7 +22353,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>108</v>
       </c>
@@ -22331,7 +22367,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A9" s="78" t="s">
         <v>110</v>
       </c>
@@ -22345,7 +22381,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A10" s="78"/>
       <c r="B10" s="78">
         <v>42509</v>
@@ -22357,7 +22393,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>126</v>
       </c>
@@ -22371,7 +22407,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
       <c r="B12" s="78"/>
       <c r="C12" s="24" t="s">
@@ -22381,7 +22417,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>151</v>
       </c>
@@ -22395,7 +22431,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="50" x14ac:dyDescent="0.25">
       <c r="A14" s="24"/>
       <c r="B14" s="78">
         <v>42544</v>
@@ -22407,7 +22443,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="100" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
       <c r="B15" s="78">
         <v>42548</v>
@@ -22419,7 +22455,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="175" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
       <c r="B16" s="78">
         <v>42549</v>
@@ -22431,7 +22467,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>247</v>
       </c>
@@ -22445,7 +22481,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="78">
         <v>42556</v>
@@ -22457,7 +22493,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="50" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
         <v>262</v>
       </c>
@@ -22471,7 +22507,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>265</v>
       </c>
@@ -22485,7 +22521,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>275</v>
       </c>
@@ -22499,7 +22535,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>278</v>
       </c>
@@ -22513,7 +22549,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>285</v>
       </c>
@@ -22527,12 +22563,12 @@
         <v>286</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
       <c r="D56" s="2" t="s">
         <v>264</v>
       </c>
